--- a/raw_data/20200818_saline/20200818_Sensor0_Test_83.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_83.xlsx
@@ -1,930 +1,1346 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D611811-408F-4966-B4E4-80D1ADB8A53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>73802.909037</v>
+        <v>73802.909037000005</v>
       </c>
       <c r="B2" s="1">
-        <v>20.500808</v>
+        <v>20.500807999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>904.144000</v>
+        <v>904.14400000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-189.247000</v>
+        <v>-189.24700000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>73813.341902</v>
       </c>
       <c r="G2" s="1">
-        <v>20.503706</v>
+        <v>20.503706000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>920.218000</v>
+        <v>920.21799999999996</v>
       </c>
       <c r="I2" s="1">
-        <v>-161.401000</v>
+        <v>-161.40100000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>73824.109039</v>
+        <v>73824.109039000003</v>
       </c>
       <c r="L2" s="1">
-        <v>20.506697</v>
+        <v>20.506696999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>942.114000</v>
+        <v>942.11400000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-117.116000</v>
+        <v>-117.116</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>73834.628691</v>
+        <v>73834.628691000005</v>
       </c>
       <c r="Q2" s="1">
-        <v>20.509619</v>
+        <v>20.509619000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>948.862000</v>
+        <v>948.86199999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-102.674000</v>
+        <v>-102.67400000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>73844.936548</v>
+        <v>73844.936547999998</v>
       </c>
       <c r="V2" s="1">
-        <v>20.512482</v>
+        <v>20.512481999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>955.697000</v>
+        <v>955.697</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.548900</v>
+        <v>-89.548900000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>73855.117432</v>
+        <v>73855.117431999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>20.515310</v>
+        <v>20.515309999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>963.472000</v>
+        <v>963.47199999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.330800</v>
+        <v>-80.330799999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>73865.325593</v>
+        <v>73865.325593000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>20.518146</v>
+        <v>20.518146000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>968.665000</v>
+        <v>968.66499999999996</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.819400</v>
+        <v>-79.819400000000002</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>73875.455916</v>
+        <v>73875.455916000006</v>
       </c>
       <c r="AK2" s="1">
-        <v>20.520960</v>
+        <v>20.520959999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>976.876000</v>
+        <v>976.87599999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.643700</v>
+        <v>-87.643699999999995</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>73885.723070</v>
+        <v>73885.723069999993</v>
       </c>
       <c r="AP2" s="1">
         <v>20.523812</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.176000</v>
+        <v>986.17600000000004</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.422000</v>
+        <v>-102.422</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>73896.674241</v>
+        <v>73896.674241000001</v>
       </c>
       <c r="AU2" s="1">
         <v>20.526854</v>
       </c>
       <c r="AV2" s="1">
-        <v>997.643000</v>
+        <v>997.64300000000003</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.782000</v>
+        <v>-123.782</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>73907.545553</v>
+        <v>73907.545553000004</v>
       </c>
       <c r="AZ2" s="1">
         <v>20.529874</v>
       </c>
       <c r="BA2" s="1">
-        <v>1007.330000</v>
+        <v>1007.33</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.411000</v>
+        <v>-142.411</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>73918.471426</v>
+        <v>73918.471426000004</v>
       </c>
       <c r="BE2" s="1">
         <v>20.532909</v>
       </c>
       <c r="BF2" s="1">
-        <v>1052.800000</v>
+        <v>1052.8</v>
       </c>
       <c r="BG2" s="1">
-        <v>-226.571000</v>
+        <v>-226.571</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>73929.147316</v>
+        <v>73929.147316000002</v>
       </c>
       <c r="BJ2" s="1">
         <v>20.535874</v>
       </c>
       <c r="BK2" s="1">
-        <v>1132.540000</v>
+        <v>1132.54</v>
       </c>
       <c r="BL2" s="1">
-        <v>-361.130000</v>
+        <v>-361.13</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>73940.734390</v>
+        <v>73940.734389999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>20.539093</v>
+        <v>20.539093000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1264.100000</v>
+        <v>1264.0999999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-568.023000</v>
+        <v>-568.02300000000002</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>73952.288166</v>
+        <v>73952.288165999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>20.542302</v>
+        <v>20.542301999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1411.190000</v>
+        <v>1411.19</v>
       </c>
       <c r="BV2" s="1">
-        <v>-787.861000</v>
+        <v>-787.86099999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>73963.273101</v>
+        <v>73963.273100999999</v>
       </c>
       <c r="BY2" s="1">
         <v>20.545354</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1571.640000</v>
+        <v>1571.64</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1017.380000</v>
+        <v>-1017.38</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>73974.153801</v>
+        <v>73974.153800999993</v>
       </c>
       <c r="CD2" s="1">
-        <v>20.548376</v>
+        <v>20.548376000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1972.890000</v>
+        <v>1972.89</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1552.220000</v>
+        <v>-1552.22</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>73803.298396</v>
+        <v>73803.298395999998</v>
       </c>
       <c r="B3" s="1">
         <v>20.500916</v>
       </c>
       <c r="C3" s="1">
-        <v>904.272000</v>
+        <v>904.27200000000005</v>
       </c>
       <c r="D3" s="1">
-        <v>-189.291000</v>
+        <v>-189.291</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>73814.004540</v>
+        <v>73814.004539999994</v>
       </c>
       <c r="G3" s="1">
-        <v>20.503890</v>
+        <v>20.503889999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>919.821000</v>
+        <v>919.82100000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-160.952000</v>
+        <v>-160.952</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>73824.513278</v>
+        <v>73824.513277999999</v>
       </c>
       <c r="L3" s="1">
-        <v>20.506809</v>
+        <v>20.506809000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>941.980000</v>
+        <v>941.98</v>
       </c>
       <c r="N3" s="1">
-        <v>-117.085000</v>
+        <v>-117.08499999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>73835.031441</v>
+        <v>73835.031440999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>20.509731</v>
+        <v>20.509730999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>948.843000</v>
+        <v>948.84299999999996</v>
       </c>
       <c r="S3" s="1">
-        <v>-102.687000</v>
+        <v>-102.687</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>73845.285235</v>
+        <v>73845.285235000003</v>
       </c>
       <c r="V3" s="1">
-        <v>20.512579</v>
+        <v>20.512578999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>955.599000</v>
+        <v>955.59900000000005</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.449500</v>
+        <v>-89.4495</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>73855.466120</v>
+        <v>73855.466119999997</v>
       </c>
       <c r="AA3" s="1">
         <v>20.515407</v>
       </c>
       <c r="AB3" s="1">
-        <v>963.425000</v>
+        <v>963.42499999999995</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.300600</v>
+        <v>-80.300600000000003</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>73865.705528</v>
+        <v>73865.705528000006</v>
       </c>
       <c r="AF3" s="1">
         <v>20.518252</v>
       </c>
       <c r="AG3" s="1">
-        <v>968.637000</v>
+        <v>968.63699999999994</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.001400</v>
+        <v>-80.001400000000004</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>73875.890379</v>
+        <v>73875.890379000004</v>
       </c>
       <c r="AK3" s="1">
-        <v>20.521081</v>
+        <v>20.521080999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>976.881000</v>
+        <v>976.88099999999997</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.651300</v>
+        <v>-87.651300000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>73886.149172</v>
+        <v>73886.149172000005</v>
       </c>
       <c r="AP3" s="1">
-        <v>20.523930</v>
+        <v>20.52393</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.190000</v>
+        <v>986.19</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.423000</v>
+        <v>-102.423</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>73897.129071</v>
+        <v>73897.129071000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>20.526980</v>
+        <v>20.526979999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>997.651000</v>
+        <v>997.65099999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.778000</v>
+        <v>-123.77800000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>73907.909654</v>
+        <v>73907.909654000003</v>
       </c>
       <c r="AZ3" s="1">
         <v>20.529975</v>
       </c>
       <c r="BA3" s="1">
-        <v>1007.320000</v>
+        <v>1007.32</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.404000</v>
+        <v>-142.404</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>73918.834003</v>
+        <v>73918.834002999996</v>
       </c>
       <c r="BE3" s="1">
         <v>20.533009</v>
       </c>
       <c r="BF3" s="1">
-        <v>1052.800000</v>
+        <v>1052.8</v>
       </c>
       <c r="BG3" s="1">
-        <v>-226.591000</v>
+        <v>-226.59100000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>73929.561013</v>
+        <v>73929.561012999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>20.535989</v>
+        <v>20.535989000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1132.570000</v>
+        <v>1132.57</v>
       </c>
       <c r="BL3" s="1">
-        <v>-361.157000</v>
+        <v>-361.15699999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>73941.561189</v>
@@ -933,135 +1349,135 @@
         <v>20.539323</v>
       </c>
       <c r="BP3" s="1">
-        <v>1264.090000</v>
+        <v>1264.0899999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-568.057000</v>
+        <v>-568.05700000000002</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>73952.726629</v>
+        <v>73952.726628999997</v>
       </c>
       <c r="BT3" s="1">
         <v>20.542424</v>
       </c>
       <c r="BU3" s="1">
-        <v>1411.240000</v>
+        <v>1411.24</v>
       </c>
       <c r="BV3" s="1">
-        <v>-787.937000</v>
+        <v>-787.93700000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>73963.711526</v>
+        <v>73963.711525999999</v>
       </c>
       <c r="BY3" s="1">
         <v>20.545475</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1571.600000</v>
+        <v>1571.6</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1017.490000</v>
+        <v>-1017.49</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>73974.719273</v>
+        <v>73974.719272999995</v>
       </c>
       <c r="CD3" s="1">
-        <v>20.548533</v>
+        <v>20.548532999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1973.130000</v>
+        <v>1973.13</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1551.660000</v>
+        <v>-1551.66</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>73803.952618</v>
+        <v>73803.952617999996</v>
       </c>
       <c r="B4" s="1">
-        <v>20.501098</v>
+        <v>20.501097999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>904.050000</v>
+        <v>904.05</v>
       </c>
       <c r="D4" s="1">
-        <v>-189.304000</v>
+        <v>-189.304</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>73814.373596</v>
+        <v>73814.373596000005</v>
       </c>
       <c r="G4" s="1">
-        <v>20.503993</v>
+        <v>20.503993000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>920.243000</v>
+        <v>920.24300000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-161.401000</v>
+        <v>-161.40100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>73824.859982</v>
+        <v>73824.859981999994</v>
       </c>
       <c r="L4" s="1">
-        <v>20.506906</v>
+        <v>20.506906000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>941.933000</v>
+        <v>941.93299999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-117.147000</v>
+        <v>-117.14700000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>73835.378642</v>
+        <v>73835.378641999996</v>
       </c>
       <c r="Q4" s="1">
-        <v>20.509827</v>
+        <v>20.509827000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>948.772000</v>
+        <v>948.77200000000005</v>
       </c>
       <c r="S4" s="1">
-        <v>-102.658000</v>
+        <v>-102.658</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>73845.627474</v>
+        <v>73845.627473999994</v>
       </c>
       <c r="V4" s="1">
-        <v>20.512674</v>
+        <v>20.512674000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>955.796000</v>
+        <v>955.79600000000005</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.449600</v>
+        <v>-89.449600000000004</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>73856.061317</v>
@@ -1070,315 +1486,315 @@
         <v>20.515573</v>
       </c>
       <c r="AB4" s="1">
-        <v>963.450000</v>
+        <v>963.45</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.311900</v>
+        <v>-80.311899999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>73866.133080</v>
+        <v>73866.13308</v>
       </c>
       <c r="AF4" s="1">
-        <v>20.518370</v>
+        <v>20.518370000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>968.743000</v>
+        <v>968.74300000000005</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.985800</v>
+        <v>-79.985799999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>73876.215755</v>
+        <v>73876.215754999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>20.521171</v>
+        <v>20.521170999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>976.870000</v>
+        <v>976.87</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.610300</v>
+        <v>-87.610299999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>73886.483446</v>
+        <v>73886.483445999998</v>
       </c>
       <c r="AP4" s="1">
         <v>20.524023</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.176000</v>
+        <v>986.17600000000004</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.416000</v>
+        <v>-102.416</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>73897.512974</v>
+        <v>73897.512973999997</v>
       </c>
       <c r="AU4" s="1">
-        <v>20.527087</v>
+        <v>20.527087000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>997.632000</v>
+        <v>997.63199999999995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.782000</v>
+        <v>-123.782</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>73908.268257</v>
+        <v>73908.268257000003</v>
       </c>
       <c r="AZ4" s="1">
         <v>20.530075</v>
       </c>
       <c r="BA4" s="1">
-        <v>1007.340000</v>
+        <v>1007.34</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.386000</v>
+        <v>-142.386</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>73919.191122</v>
+        <v>73919.191122000004</v>
       </c>
       <c r="BE4" s="1">
         <v>20.533109</v>
       </c>
       <c r="BF4" s="1">
-        <v>1052.790000</v>
+        <v>1052.79</v>
       </c>
       <c r="BG4" s="1">
-        <v>-226.578000</v>
+        <v>-226.578</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>73930.311923</v>
+        <v>73930.311923000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>20.536198</v>
+        <v>20.536197999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1132.530000</v>
+        <v>1132.53</v>
       </c>
       <c r="BL4" s="1">
-        <v>-361.150000</v>
+        <v>-361.15</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>73941.980803</v>
+        <v>73941.980802999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>20.539439</v>
+        <v>20.539439000000002</v>
       </c>
       <c r="BP4" s="1">
-        <v>1264.070000</v>
+        <v>1264.07</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-568.027000</v>
+        <v>-568.02700000000004</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>73953.156661</v>
+        <v>73953.156661000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>20.542544</v>
+        <v>20.542543999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1411.200000</v>
+        <v>1411.2</v>
       </c>
       <c r="BV4" s="1">
-        <v>-787.938000</v>
+        <v>-787.93799999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>73964.133126</v>
+        <v>73964.133126000001</v>
       </c>
       <c r="BY4" s="1">
         <v>20.545593</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1571.590000</v>
+        <v>1571.59</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1017.410000</v>
+        <v>-1017.41</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>73975.554626</v>
+        <v>73975.554625999997</v>
       </c>
       <c r="CD4" s="1">
         <v>20.548765</v>
       </c>
       <c r="CE4" s="1">
-        <v>1973.020000</v>
+        <v>1973.02</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1553.200000</v>
+        <v>-1553.2</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>73804.322137</v>
+        <v>73804.322136999996</v>
       </c>
       <c r="B5" s="1">
-        <v>20.501201</v>
+        <v>20.501200999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>904.006000</v>
+        <v>904.00599999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>-189.307000</v>
+        <v>-189.30699999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>73814.719275</v>
+        <v>73814.719274999996</v>
       </c>
       <c r="G5" s="1">
         <v>20.504089</v>
       </c>
       <c r="H5" s="1">
-        <v>919.977000</v>
+        <v>919.97699999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-161.338000</v>
+        <v>-161.33799999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>73825.205198</v>
+        <v>73825.205197999996</v>
       </c>
       <c r="L5" s="1">
-        <v>20.507001</v>
+        <v>20.507000999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>942.028000</v>
+        <v>942.02800000000002</v>
       </c>
       <c r="N5" s="1">
-        <v>-117.174000</v>
+        <v>-117.17400000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>73835.731792</v>
+        <v>73835.731792000006</v>
       </c>
       <c r="Q5" s="1">
-        <v>20.509925</v>
+        <v>20.509924999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>948.818000</v>
+        <v>948.81799999999998</v>
       </c>
       <c r="S5" s="1">
-        <v>-102.659000</v>
+        <v>-102.65900000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>73846.061972</v>
+        <v>73846.061971999996</v>
       </c>
       <c r="V5" s="1">
-        <v>20.512795</v>
+        <v>20.512795000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>955.724000</v>
+        <v>955.72400000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.524800</v>
+        <v>-89.524799999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>73856.172917</v>
+        <v>73856.172917000004</v>
       </c>
       <c r="AA5" s="1">
         <v>20.515604</v>
       </c>
       <c r="AB5" s="1">
-        <v>963.403000</v>
+        <v>963.40300000000002</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.308500</v>
+        <v>-80.308499999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>73866.428199</v>
+        <v>73866.428199000002</v>
       </c>
       <c r="AF5" s="1">
         <v>20.518452</v>
       </c>
       <c r="AG5" s="1">
-        <v>968.730000</v>
+        <v>968.73</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.932900</v>
+        <v>-79.932900000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>73876.567418</v>
+        <v>73876.567418000006</v>
       </c>
       <c r="AK5" s="1">
         <v>20.521269</v>
       </c>
       <c r="AL5" s="1">
-        <v>976.883000</v>
+        <v>976.88300000000004</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.635800</v>
+        <v>-87.635800000000003</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>73886.845871</v>
+        <v>73886.845870999998</v>
       </c>
       <c r="AP5" s="1">
         <v>20.524124</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.186000</v>
+        <v>986.18600000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.405000</v>
+        <v>-102.405</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>73897.880051</v>
@@ -1387,1193 +1803,1193 @@
         <v>20.527189</v>
       </c>
       <c r="AV5" s="1">
-        <v>997.664000</v>
+        <v>997.66399999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.774000</v>
+        <v>-123.774</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>73908.986431</v>
+        <v>73908.986430999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>20.530274</v>
+        <v>20.530273999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1007.340000</v>
+        <v>1007.34</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.412000</v>
+        <v>-142.41200000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>73919.914321</v>
+        <v>73919.914321000004</v>
       </c>
       <c r="BE5" s="1">
-        <v>20.533310</v>
+        <v>20.53331</v>
       </c>
       <c r="BF5" s="1">
-        <v>1052.820000</v>
+        <v>1052.82</v>
       </c>
       <c r="BG5" s="1">
-        <v>-226.585000</v>
+        <v>-226.58500000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>73930.711202</v>
+        <v>73930.711202000006</v>
       </c>
       <c r="BJ5" s="1">
-        <v>20.536309</v>
+        <v>20.536308999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1132.540000</v>
+        <v>1132.54</v>
       </c>
       <c r="BL5" s="1">
-        <v>-361.161000</v>
+        <v>-361.161</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>73942.378100</v>
+        <v>73942.378100000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>20.539549</v>
+        <v>20.539549000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1264.080000</v>
+        <v>1264.08</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-568.087000</v>
+        <v>-568.08699999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>73953.566852</v>
+        <v>73953.566852000004</v>
       </c>
       <c r="BT5" s="1">
-        <v>20.542657</v>
+        <v>20.542656999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1411.290000</v>
+        <v>1411.29</v>
       </c>
       <c r="BV5" s="1">
-        <v>-787.989000</v>
+        <v>-787.98900000000003</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>73964.889534</v>
+        <v>73964.889534000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>20.545803</v>
+        <v>20.545802999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1571.530000</v>
+        <v>1571.53</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1017.420000</v>
+        <v>-1017.42</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>73975.787623</v>
+        <v>73975.787622999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>20.548830</v>
+        <v>20.548829999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1975.020000</v>
+        <v>1975.02</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1552.660000</v>
+        <v>-1552.66</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>73804.662426</v>
+        <v>73804.662425999995</v>
       </c>
       <c r="B6" s="1">
-        <v>20.501295</v>
+        <v>20.501294999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>904.064000</v>
+        <v>904.06399999999996</v>
       </c>
       <c r="D6" s="1">
-        <v>-189.293000</v>
+        <v>-189.29300000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>73815.066971</v>
+        <v>73815.066970999993</v>
       </c>
       <c r="G6" s="1">
         <v>20.504185</v>
       </c>
       <c r="H6" s="1">
-        <v>920.229000</v>
+        <v>920.22900000000004</v>
       </c>
       <c r="I6" s="1">
-        <v>-161.479000</v>
+        <v>-161.47900000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>73825.631757</v>
+        <v>73825.631756999996</v>
       </c>
       <c r="L6" s="1">
-        <v>20.507120</v>
+        <v>20.50712</v>
       </c>
       <c r="M6" s="1">
-        <v>941.901000</v>
+        <v>941.90099999999995</v>
       </c>
       <c r="N6" s="1">
-        <v>-117.161000</v>
+        <v>-117.161</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>73836.157855</v>
+        <v>73836.157854999998</v>
       </c>
       <c r="Q6" s="1">
-        <v>20.510044</v>
+        <v>20.510044000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>948.830000</v>
+        <v>948.83</v>
       </c>
       <c r="S6" s="1">
-        <v>-102.670000</v>
+        <v>-102.67</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>73846.324850</v>
+        <v>73846.324850000005</v>
       </c>
       <c r="V6" s="1">
-        <v>20.512868</v>
+        <v>20.512868000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>955.759000</v>
+        <v>955.75900000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.453400</v>
+        <v>-89.453400000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>73856.508249</v>
+        <v>73856.508249000006</v>
       </c>
       <c r="AA6" s="1">
-        <v>20.515697</v>
+        <v>20.515696999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>963.425000</v>
+        <v>963.42499999999995</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.331400</v>
+        <v>-80.331400000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>73866.772951</v>
+        <v>73866.772951000006</v>
       </c>
       <c r="AF6" s="1">
-        <v>20.518548</v>
+        <v>20.518547999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>968.782000</v>
+        <v>968.78200000000004</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.024800</v>
+        <v>-80.024799999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>73876.914618</v>
+        <v>73876.914617999995</v>
       </c>
       <c r="AK6" s="1">
-        <v>20.521365</v>
+        <v>20.521364999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>976.887000</v>
+        <v>976.88699999999994</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.641100</v>
+        <v>-87.641099999999994</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>73887.202669</v>
+        <v>73887.202669000006</v>
       </c>
       <c r="AP6" s="1">
-        <v>20.524223</v>
+        <v>20.524222999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.179000</v>
+        <v>986.17899999999997</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.396000</v>
+        <v>-102.396</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>73898.605165</v>
+        <v>73898.605165000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>20.527390</v>
+        <v>20.52739</v>
       </c>
       <c r="AV6" s="1">
-        <v>997.638000</v>
+        <v>997.63800000000003</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.776000</v>
+        <v>-123.776</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>73909.343054</v>
+        <v>73909.343053999997</v>
       </c>
       <c r="AZ6" s="1">
-        <v>20.530373</v>
+        <v>20.530373000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1007.320000</v>
+        <v>1007.32</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.400000</v>
+        <v>-142.4</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>73920.305632</v>
+        <v>73920.305632000003</v>
       </c>
       <c r="BE6" s="1">
-        <v>20.533418</v>
+        <v>20.533418000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1052.820000</v>
+        <v>1052.82</v>
       </c>
       <c r="BG6" s="1">
-        <v>-226.589000</v>
+        <v>-226.589</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>73931.085682</v>
+        <v>73931.085682000004</v>
       </c>
       <c r="BJ6" s="1">
         <v>20.536413</v>
       </c>
       <c r="BK6" s="1">
-        <v>1132.550000</v>
+        <v>1132.55</v>
       </c>
       <c r="BL6" s="1">
-        <v>-361.156000</v>
+        <v>-361.15600000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>73943.116147</v>
+        <v>73943.116146999993</v>
       </c>
       <c r="BO6" s="1">
-        <v>20.539754</v>
+        <v>20.539753999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1264.070000</v>
+        <v>1264.07</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-568.068000</v>
+        <v>-568.06799999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>73954.239923</v>
+        <v>73954.239923000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>20.542844</v>
+        <v>20.542843999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1411.340000</v>
+        <v>1411.34</v>
       </c>
       <c r="BV6" s="1">
-        <v>-788.078000</v>
+        <v>-788.07799999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>73965.006583</v>
+        <v>73965.006582999995</v>
       </c>
       <c r="BY6" s="1">
         <v>20.545835</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1571.530000</v>
+        <v>1571.53</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1017.550000</v>
+        <v>-1017.55</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>73976.325816</v>
+        <v>73976.325815999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>20.548979</v>
+        <v>20.548978999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1973.110000</v>
+        <v>1973.11</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1552.070000</v>
+        <v>-1552.07</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>73805.007112</v>
+        <v>73805.007112000007</v>
       </c>
       <c r="B7" s="1">
-        <v>20.501391</v>
+        <v>20.501391000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>903.974000</v>
+        <v>903.97400000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-189.354000</v>
+        <v>-189.35400000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>73815.491083</v>
+        <v>73815.491083000001</v>
       </c>
       <c r="G7" s="1">
         <v>20.504303</v>
       </c>
       <c r="H7" s="1">
-        <v>919.637000</v>
+        <v>919.63699999999994</v>
       </c>
       <c r="I7" s="1">
-        <v>-161.329000</v>
+        <v>-161.32900000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>73825.917949</v>
+        <v>73825.917948999995</v>
       </c>
       <c r="L7" s="1">
         <v>20.507199</v>
       </c>
       <c r="M7" s="1">
-        <v>942.010000</v>
+        <v>942.01</v>
       </c>
       <c r="N7" s="1">
-        <v>-117.127000</v>
+        <v>-117.127</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>73836.426687</v>
+        <v>73836.426686999999</v>
       </c>
       <c r="Q7" s="1">
         <v>20.510119</v>
       </c>
       <c r="R7" s="1">
-        <v>948.838000</v>
+        <v>948.83799999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-102.662000</v>
+        <v>-102.66200000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>73846.670100</v>
+        <v>73846.670100000003</v>
       </c>
       <c r="V7" s="1">
         <v>20.512964</v>
       </c>
       <c r="W7" s="1">
-        <v>955.686000</v>
+        <v>955.68600000000004</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.527400</v>
+        <v>-89.5274</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>73856.859908</v>
+        <v>73856.859907999999</v>
       </c>
       <c r="AA7" s="1">
         <v>20.515794</v>
       </c>
       <c r="AB7" s="1">
-        <v>963.501000</v>
+        <v>963.50099999999998</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.352300</v>
+        <v>-80.3523</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>73867.114166</v>
+        <v>73867.114165999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>20.518643</v>
+        <v>20.518643000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>968.606000</v>
+        <v>968.60599999999999</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.881700</v>
+        <v>-79.881699999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>73877.611496</v>
+        <v>73877.611495999998</v>
       </c>
       <c r="AK7" s="1">
         <v>20.521559</v>
       </c>
       <c r="AL7" s="1">
-        <v>976.887000</v>
+        <v>976.88699999999994</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.618900</v>
+        <v>-87.618899999999996</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>73887.923324</v>
+        <v>73887.923324000003</v>
       </c>
       <c r="AP7" s="1">
-        <v>20.524423</v>
+        <v>20.524422999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.188000</v>
+        <v>986.18799999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.405000</v>
+        <v>-102.405</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>73898.997537</v>
+        <v>73898.997537000003</v>
       </c>
       <c r="AU7" s="1">
-        <v>20.527499</v>
+        <v>20.527498999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>997.639000</v>
+        <v>997.63900000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.786000</v>
+        <v>-123.786</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>73909.701694</v>
+        <v>73909.701694000003</v>
       </c>
       <c r="AZ7" s="1">
-        <v>20.530473</v>
+        <v>20.530473000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1007.330000</v>
+        <v>1007.33</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.400000</v>
+        <v>-142.4</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>73920.708880</v>
+        <v>73920.708880000006</v>
       </c>
       <c r="BE7" s="1">
-        <v>20.533530</v>
+        <v>20.533529999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1052.800000</v>
+        <v>1052.8</v>
       </c>
       <c r="BG7" s="1">
-        <v>-226.576000</v>
+        <v>-226.57599999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>73931.777105</v>
+        <v>73931.777105000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>20.536605</v>
+        <v>20.536605000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1132.600000</v>
+        <v>1132.5999999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-361.159000</v>
+        <v>-361.15899999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>73943.626065</v>
+        <v>73943.626065000004</v>
       </c>
       <c r="BO7" s="1">
-        <v>20.539896</v>
+        <v>20.539895999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1264.060000</v>
+        <v>1264.06</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-568.032000</v>
+        <v>-568.03200000000004</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>73954.412531</v>
+        <v>73954.412530999994</v>
       </c>
       <c r="BT7" s="1">
-        <v>20.542892</v>
+        <v>20.542891999999998</v>
       </c>
       <c r="BU7" s="1">
-        <v>1411.430000</v>
+        <v>1411.43</v>
       </c>
       <c r="BV7" s="1">
-        <v>-788.052000</v>
+        <v>-788.05200000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>73965.443557</v>
+        <v>73965.443557000006</v>
       </c>
       <c r="BY7" s="1">
-        <v>20.545957</v>
+        <v>20.545957000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1571.580000</v>
+        <v>1571.58</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1017.590000</v>
+        <v>-1017.59</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>73976.863941</v>
+        <v>73976.863941000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>20.549129</v>
+        <v>20.549129000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1974.130000</v>
+        <v>1974.13</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1553.450000</v>
+        <v>-1553.45</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>73805.462936</v>
+        <v>73805.462935999996</v>
       </c>
       <c r="B8" s="1">
         <v>20.501517</v>
       </c>
       <c r="C8" s="1">
-        <v>904.085000</v>
+        <v>904.08500000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>-189.281000</v>
+        <v>-189.28100000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>73815.770828</v>
+        <v>73815.770827999993</v>
       </c>
       <c r="G8" s="1">
-        <v>20.504381</v>
+        <v>20.504380999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>920.001000</v>
+        <v>920.00099999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-161.572000</v>
+        <v>-161.572</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>73826.263660</v>
+        <v>73826.263659999997</v>
       </c>
       <c r="L8" s="1">
-        <v>20.507295</v>
+        <v>20.507294999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>941.851000</v>
+        <v>941.851</v>
       </c>
       <c r="N8" s="1">
-        <v>-117.099000</v>
+        <v>-117.099</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>73836.774878</v>
+        <v>73836.774877999997</v>
       </c>
       <c r="Q8" s="1">
-        <v>20.510215</v>
+        <v>20.510214999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>948.844000</v>
+        <v>948.84400000000005</v>
       </c>
       <c r="S8" s="1">
-        <v>-102.705000</v>
+        <v>-102.705</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>73847.011344</v>
+        <v>73847.011343999999</v>
       </c>
       <c r="V8" s="1">
-        <v>20.513059</v>
+        <v>20.513058999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>955.695000</v>
+        <v>955.69500000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.527200</v>
+        <v>-89.527199999999993</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>73857.555267</v>
+        <v>73857.555267000003</v>
       </c>
       <c r="AA8" s="1">
         <v>20.515988</v>
       </c>
       <c r="AB8" s="1">
-        <v>963.471000</v>
+        <v>963.471</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.415100</v>
+        <v>-80.415099999999995</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>73867.802117</v>
+        <v>73867.802116999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>20.518834</v>
+        <v>20.518833999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>968.715000</v>
+        <v>968.71500000000003</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.969900</v>
+        <v>-79.969899999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>73877.960680</v>
+        <v>73877.960680000004</v>
       </c>
       <c r="AK8" s="1">
         <v>20.521656</v>
       </c>
       <c r="AL8" s="1">
-        <v>976.913000</v>
+        <v>976.91300000000001</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.644600</v>
+        <v>-87.644599999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>73888.284412</v>
+        <v>73888.284411999994</v>
       </c>
       <c r="AP8" s="1">
-        <v>20.524523</v>
+        <v>20.524522999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.197000</v>
+        <v>986.197</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.401000</v>
+        <v>-102.401</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>73899.362556</v>
+        <v>73899.362555999993</v>
       </c>
       <c r="AU8" s="1">
-        <v>20.527601</v>
+        <v>20.527601000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>997.644000</v>
+        <v>997.64400000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.778000</v>
+        <v>-123.77800000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>73910.367790</v>
+        <v>73910.367790000004</v>
       </c>
       <c r="AZ8" s="1">
-        <v>20.530658</v>
+        <v>20.530657999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1007.330000</v>
+        <v>1007.33</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.410000</v>
+        <v>-142.41</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>73921.156799</v>
+        <v>73921.156799000004</v>
       </c>
       <c r="BE8" s="1">
         <v>20.533655</v>
       </c>
       <c r="BF8" s="1">
-        <v>1052.840000</v>
+        <v>1052.8399999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-226.571000</v>
+        <v>-226.571</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>73932.243349</v>
+        <v>73932.243348999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>20.536734</v>
+        <v>20.536733999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1132.540000</v>
+        <v>1132.54</v>
       </c>
       <c r="BL8" s="1">
-        <v>-361.136000</v>
+        <v>-361.13600000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>73944.034737</v>
+        <v>73944.034736999994</v>
       </c>
       <c r="BO8" s="1">
-        <v>20.540010</v>
+        <v>20.540009999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1264.100000</v>
+        <v>1264.0999999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-568.072000</v>
+        <v>-568.072</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>73954.831652</v>
+        <v>73954.831651999993</v>
       </c>
       <c r="BT8" s="1">
-        <v>20.543009</v>
+        <v>20.543009000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1411.370000</v>
+        <v>1411.37</v>
       </c>
       <c r="BV8" s="1">
-        <v>-788.174000</v>
+        <v>-788.17399999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>73965.866148</v>
+        <v>73965.866148000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>20.546074</v>
+        <v>20.546074000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1571.580000</v>
+        <v>1571.58</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1017.510000</v>
+        <v>-1017.51</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>73977.404581</v>
+        <v>73977.404580999995</v>
       </c>
       <c r="CD8" s="1">
-        <v>20.549279</v>
+        <v>20.549278999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1974.620000</v>
+        <v>1974.62</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1551.780000</v>
+        <v>-1551.78</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>73805.701017</v>
+        <v>73805.701016999999</v>
       </c>
       <c r="B9" s="1">
-        <v>20.501584</v>
+        <v>20.501584000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>904.118000</v>
+        <v>904.11800000000005</v>
       </c>
       <c r="D9" s="1">
-        <v>-189.421000</v>
+        <v>-189.42099999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>73816.115546</v>
+        <v>73816.115546000001</v>
       </c>
       <c r="G9" s="1">
-        <v>20.504477</v>
+        <v>20.504477000000001</v>
       </c>
       <c r="H9" s="1">
-        <v>920.092000</v>
+        <v>920.09199999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-161.227000</v>
+        <v>-161.227</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>73826.609905</v>
+        <v>73826.609905000005</v>
       </c>
       <c r="L9" s="1">
-        <v>20.507392</v>
+        <v>20.507391999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>941.972000</v>
+        <v>941.97199999999998</v>
       </c>
       <c r="N9" s="1">
-        <v>-117.004000</v>
+        <v>-117.004</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>73837.123603</v>
       </c>
       <c r="Q9" s="1">
-        <v>20.510312</v>
+        <v>20.510311999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>948.809000</v>
+        <v>948.80899999999997</v>
       </c>
       <c r="S9" s="1">
-        <v>-102.698000</v>
+        <v>-102.69799999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>73847.696290</v>
+        <v>73847.696290000007</v>
       </c>
       <c r="V9" s="1">
-        <v>20.513249</v>
+        <v>20.513248999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>955.821000</v>
+        <v>955.82100000000003</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.539700</v>
+        <v>-89.539699999999996</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>73857.908419</v>
+        <v>73857.908418999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>20.516086</v>
+        <v>20.516086000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>963.431000</v>
+        <v>963.43100000000004</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.428500</v>
+        <v>-80.4285</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>73868.145845</v>
+        <v>73868.145845000006</v>
       </c>
       <c r="AF9" s="1">
         <v>20.518929</v>
       </c>
       <c r="AG9" s="1">
-        <v>968.743000</v>
+        <v>968.74300000000005</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.059500</v>
+        <v>-80.0595</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>73878.305399</v>
+        <v>73878.305399000004</v>
       </c>
       <c r="AK9" s="1">
-        <v>20.521751</v>
+        <v>20.521750999999998</v>
       </c>
       <c r="AL9" s="1">
-        <v>976.872000</v>
+        <v>976.87199999999996</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.644000</v>
+        <v>-87.644000000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>73888.951531</v>
+        <v>73888.951530999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>20.524709</v>
+        <v>20.524709000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.198000</v>
+        <v>986.19799999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.421000</v>
+        <v>-102.42100000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>73900.046540</v>
+        <v>73900.046539999996</v>
       </c>
       <c r="AU9" s="1">
-        <v>20.527791</v>
+        <v>20.527791000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>997.650000</v>
+        <v>997.65</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.795000</v>
+        <v>-123.795</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>73910.810421</v>
+        <v>73910.810421000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>20.530781</v>
+        <v>20.530781000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1007.350000</v>
+        <v>1007.35</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.380000</v>
+        <v>-142.38</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>73921.423119</v>
+        <v>73921.423118999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>20.533729</v>
+        <v>20.533729000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1052.810000</v>
+        <v>1052.81</v>
       </c>
       <c r="BG9" s="1">
-        <v>-226.577000</v>
+        <v>-226.577</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>73932.632209</v>
+        <v>73932.632209000003</v>
       </c>
       <c r="BJ9" s="1">
         <v>20.536842</v>
       </c>
       <c r="BK9" s="1">
-        <v>1132.590000</v>
+        <v>1132.5899999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-361.180000</v>
+        <v>-361.18</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>73944.430544</v>
+        <v>73944.430544000003</v>
       </c>
       <c r="BO9" s="1">
-        <v>20.540120</v>
+        <v>20.540120000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1264.110000</v>
+        <v>1264.1099999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-568.086000</v>
+        <v>-568.08600000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>73955.267175</v>
+        <v>73955.267175000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>20.543130</v>
+        <v>20.543130000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1411.500000</v>
+        <v>1411.5</v>
       </c>
       <c r="BV9" s="1">
-        <v>-788.218000</v>
+        <v>-788.21799999999996</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>73966.294691</v>
+        <v>73966.294691000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>20.546193</v>
+        <v>20.546192999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1571.610000</v>
+        <v>1571.61</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1017.500000</v>
+        <v>-1017.5</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>73977.944724</v>
+        <v>73977.944724000001</v>
       </c>
       <c r="CD9" s="1">
         <v>20.549429</v>
       </c>
       <c r="CE9" s="1">
-        <v>1973.220000</v>
+        <v>1973.22</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1553.150000</v>
+        <v>-1553.15</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>73806.075497</v>
+        <v>73806.075496999998</v>
       </c>
       <c r="B10" s="1">
-        <v>20.501688</v>
+        <v>20.501688000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>904.136000</v>
+        <v>904.13599999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>-189.259000</v>
+        <v>-189.25899999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>73816.459243</v>
+        <v>73816.459243000005</v>
       </c>
       <c r="G10" s="1">
         <v>20.504572</v>
       </c>
       <c r="H10" s="1">
-        <v>919.904000</v>
+        <v>919.904</v>
       </c>
       <c r="I10" s="1">
-        <v>-161.143000</v>
+        <v>-161.143</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>73827.303771</v>
+        <v>73827.303771000006</v>
       </c>
       <c r="L10" s="1">
-        <v>20.507584</v>
+        <v>20.507584000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>941.929000</v>
+        <v>941.92899999999997</v>
       </c>
       <c r="N10" s="1">
-        <v>-117.004000</v>
+        <v>-117.004</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>73837.825438</v>
@@ -2582,4170 +2998,4170 @@
         <v>20.510507</v>
       </c>
       <c r="R10" s="1">
-        <v>948.810000</v>
+        <v>948.81</v>
       </c>
       <c r="S10" s="1">
-        <v>-102.670000</v>
+        <v>-102.67</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>73848.042497</v>
+        <v>73848.042497000002</v>
       </c>
       <c r="V10" s="1">
-        <v>20.513345</v>
+        <v>20.513345000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>955.716000</v>
+        <v>955.71600000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.493800</v>
+        <v>-89.493799999999993</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>73858.254131</v>
+        <v>73858.254130999994</v>
       </c>
       <c r="AA10" s="1">
-        <v>20.516182</v>
+        <v>20.516182000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>963.485000</v>
+        <v>963.48500000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.260800</v>
+        <v>-80.260800000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>73868.489574</v>
+        <v>73868.489574000007</v>
       </c>
       <c r="AF10" s="1">
-        <v>20.519025</v>
+        <v>20.519024999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>968.683000</v>
+        <v>968.68299999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.932500</v>
+        <v>-79.932500000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>73878.976519</v>
+        <v>73878.976519000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>20.521938</v>
+        <v>20.521937999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>976.867000</v>
+        <v>976.86699999999996</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.601700</v>
+        <v>-87.601699999999994</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>73889.392969</v>
+        <v>73889.392968999993</v>
       </c>
       <c r="AP10" s="1">
-        <v>20.524831</v>
+        <v>20.524830999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.177000</v>
+        <v>986.17700000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.408000</v>
+        <v>-102.408</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>73900.487979</v>
+        <v>73900.487978999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>20.527913</v>
+        <v>20.527913000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>997.655000</v>
+        <v>997.65499999999997</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.782000</v>
+        <v>-123.782</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>73911.167354</v>
+        <v>73911.167354000005</v>
       </c>
       <c r="AZ10" s="1">
-        <v>20.530880</v>
+        <v>20.53088</v>
       </c>
       <c r="BA10" s="1">
-        <v>1007.310000</v>
+        <v>1007.31</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.411000</v>
+        <v>-142.411</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>73921.784206</v>
+        <v>73921.784205999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>20.533829</v>
+        <v>20.533829000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1052.820000</v>
+        <v>1052.82</v>
       </c>
       <c r="BG10" s="1">
-        <v>-226.594000</v>
+        <v>-226.59399999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>73933.006687</v>
+        <v>73933.006687000001</v>
       </c>
       <c r="BJ10" s="1">
         <v>20.536946</v>
       </c>
       <c r="BK10" s="1">
-        <v>1132.550000</v>
+        <v>1132.55</v>
       </c>
       <c r="BL10" s="1">
-        <v>-361.171000</v>
+        <v>-361.17099999999999</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>73944.857437</v>
+        <v>73944.857436999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>20.540238</v>
+        <v>20.540237999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1264.080000</v>
+        <v>1264.08</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-568.085000</v>
+        <v>-568.08500000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>73955.694717</v>
+        <v>73955.694717000006</v>
       </c>
       <c r="BT10" s="1">
-        <v>20.543249</v>
+        <v>20.543248999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1411.420000</v>
+        <v>1411.42</v>
       </c>
       <c r="BV10" s="1">
-        <v>-788.304000</v>
+        <v>-788.30399999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>73966.723235</v>
+        <v>73966.723234999998</v>
       </c>
       <c r="BY10" s="1">
         <v>20.546312</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1571.660000</v>
+        <v>1571.66</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1017.530000</v>
+        <v>-1017.53</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>73978.483413</v>
+        <v>73978.483412999994</v>
       </c>
       <c r="CD10" s="1">
-        <v>20.549579</v>
+        <v>20.549579000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1975.000000</v>
+        <v>1975</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1552.820000</v>
+        <v>-1552.82</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>73806.674662</v>
+        <v>73806.674662000005</v>
       </c>
       <c r="B11" s="1">
-        <v>20.501854</v>
+        <v>20.501854000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>904.108000</v>
+        <v>904.10799999999995</v>
       </c>
       <c r="D11" s="1">
-        <v>-189.309000</v>
+        <v>-189.309</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>73817.146697</v>
+        <v>73817.146697000004</v>
       </c>
       <c r="G11" s="1">
-        <v>20.504763</v>
+        <v>20.504763000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>920.050000</v>
+        <v>920.05</v>
       </c>
       <c r="I11" s="1">
-        <v>-161.792000</v>
+        <v>-161.792</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>73827.655434</v>
       </c>
       <c r="L11" s="1">
-        <v>20.507682</v>
+        <v>20.507681999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>941.910000</v>
+        <v>941.91</v>
       </c>
       <c r="N11" s="1">
-        <v>-117.086000</v>
+        <v>-117.086</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>73838.171612</v>
+        <v>73838.171612000006</v>
       </c>
       <c r="Q11" s="1">
         <v>20.510603</v>
       </c>
       <c r="R11" s="1">
-        <v>948.787000</v>
+        <v>948.78700000000003</v>
       </c>
       <c r="S11" s="1">
-        <v>-102.686000</v>
+        <v>-102.68600000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>73848.382751</v>
+        <v>73848.382750999997</v>
       </c>
       <c r="V11" s="1">
-        <v>20.513440</v>
+        <v>20.513439999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>955.757000</v>
+        <v>955.75699999999995</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.429700</v>
+        <v>-89.429699999999997</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>73858.930177</v>
+        <v>73858.930177000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>20.516369</v>
+        <v>20.516369000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>963.461000</v>
+        <v>963.46100000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.391500</v>
+        <v>-80.391499999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>73869.165123</v>
+        <v>73869.165122999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>20.519213</v>
+        <v>20.519213000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>968.749000</v>
+        <v>968.74900000000002</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.912000</v>
+        <v>-79.912000000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>73879.353478</v>
+        <v>73879.353478000005</v>
       </c>
       <c r="AK11" s="1">
         <v>20.522043</v>
       </c>
       <c r="AL11" s="1">
-        <v>976.883000</v>
+        <v>976.88300000000004</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.634200</v>
+        <v>-87.634200000000007</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>73889.754552</v>
+        <v>73889.754551999999</v>
       </c>
       <c r="AP11" s="1">
         <v>20.524932</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.208000</v>
+        <v>986.20799999999997</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.425000</v>
+        <v>-102.425</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>73900.857498</v>
+        <v>73900.857497999998</v>
       </c>
       <c r="AU11" s="1">
-        <v>20.528016</v>
+        <v>20.528016000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>997.660000</v>
+        <v>997.66</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.777000</v>
+        <v>-123.777</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>73911.528956</v>
+        <v>73911.528955999995</v>
       </c>
       <c r="AZ11" s="1">
-        <v>20.530980</v>
+        <v>20.53098</v>
       </c>
       <c r="BA11" s="1">
-        <v>1007.350000</v>
+        <v>1007.35</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.401000</v>
+        <v>-142.40100000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>73922.219694</v>
+        <v>73922.219693999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>20.533950</v>
+        <v>20.533950000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1052.830000</v>
+        <v>1052.83</v>
       </c>
       <c r="BG11" s="1">
-        <v>-226.607000</v>
+        <v>-226.607</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>73933.437743</v>
+        <v>73933.437743000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>20.537066</v>
+        <v>20.537065999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1132.540000</v>
+        <v>1132.54</v>
       </c>
       <c r="BL11" s="1">
-        <v>-361.151000</v>
+        <v>-361.15100000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>73945.249439</v>
+        <v>73945.249439000007</v>
       </c>
       <c r="BO11" s="1">
-        <v>20.540347</v>
+        <v>20.540347000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1264.090000</v>
+        <v>1264.0899999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-568.116000</v>
+        <v>-568.11599999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>73956.107888</v>
+        <v>73956.107887999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>20.543363</v>
+        <v>20.543362999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1411.460000</v>
+        <v>1411.46</v>
       </c>
       <c r="BV11" s="1">
-        <v>-788.328000</v>
+        <v>-788.32799999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>73967.152275</v>
       </c>
       <c r="BY11" s="1">
-        <v>20.546431</v>
+        <v>20.546430999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1571.560000</v>
+        <v>1571.56</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1017.320000</v>
+        <v>-1017.32</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>73979.022531</v>
+        <v>73979.022530999995</v>
       </c>
       <c r="CD11" s="1">
-        <v>20.549728</v>
+        <v>20.549728000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>1973.200000</v>
+        <v>1973.2</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1551.930000</v>
+        <v>-1551.93</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>73807.086359</v>
+        <v>73807.086358999994</v>
       </c>
       <c r="B12" s="1">
-        <v>20.501968</v>
+        <v>20.501968000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>904.075000</v>
+        <v>904.07500000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-189.316000</v>
+        <v>-189.316</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>73817.492408</v>
+        <v>73817.492408000006</v>
       </c>
       <c r="G12" s="1">
         <v>20.504859</v>
       </c>
       <c r="H12" s="1">
-        <v>919.938000</v>
+        <v>919.93799999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-161.281000</v>
+        <v>-161.28100000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>73828.001147</v>
+        <v>73828.001147000003</v>
       </c>
       <c r="L12" s="1">
-        <v>20.507778</v>
+        <v>20.507777999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>941.969000</v>
+        <v>941.96900000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-117.138000</v>
+        <v>-117.13800000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>73838.521788</v>
+        <v>73838.521787999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>20.510700</v>
+        <v>20.5107</v>
       </c>
       <c r="R12" s="1">
-        <v>948.805000</v>
+        <v>948.80499999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-102.664000</v>
+        <v>-102.664</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>73849.055363</v>
+        <v>73849.055363000007</v>
       </c>
       <c r="V12" s="1">
-        <v>20.513626</v>
+        <v>20.513625999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>955.782000</v>
+        <v>955.78200000000004</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.546600</v>
+        <v>-89.546599999999998</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>73859.300688</v>
+        <v>73859.300688000003</v>
       </c>
       <c r="AA12" s="1">
         <v>20.516472</v>
       </c>
       <c r="AB12" s="1">
-        <v>963.404000</v>
+        <v>963.404</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.377000</v>
+        <v>-80.376999999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>73869.527204</v>
+        <v>73869.527203999998</v>
       </c>
       <c r="AF12" s="1">
         <v>20.519313</v>
       </c>
       <c r="AG12" s="1">
-        <v>968.598000</v>
+        <v>968.59799999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.024100</v>
+        <v>-80.024100000000004</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>73879.702133</v>
+        <v>73879.702132999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>20.522139</v>
+        <v>20.522138999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>976.893000</v>
+        <v>976.89300000000003</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.630400</v>
+        <v>-87.630399999999995</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>73890.113160</v>
+        <v>73890.113159999994</v>
       </c>
       <c r="AP12" s="1">
-        <v>20.525031</v>
+        <v>20.525030999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.197000</v>
+        <v>986.197</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.408000</v>
+        <v>-102.408</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>73901.218091</v>
+        <v>73901.218091000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>20.528116</v>
+        <v>20.528116000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>997.647000</v>
+        <v>997.64700000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.782000</v>
+        <v>-123.782</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>73911.960444</v>
+        <v>73911.960443999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>20.531100</v>
+        <v>20.531099999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1007.340000</v>
+        <v>1007.34</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.381000</v>
+        <v>-142.381</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>73922.505885</v>
+        <v>73922.505885000006</v>
       </c>
       <c r="BE12" s="1">
         <v>20.534029</v>
       </c>
       <c r="BF12" s="1">
-        <v>1052.800000</v>
+        <v>1052.8</v>
       </c>
       <c r="BG12" s="1">
-        <v>-226.584000</v>
+        <v>-226.584</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>73933.757632</v>
+        <v>73933.757631999993</v>
       </c>
       <c r="BJ12" s="1">
-        <v>20.537155</v>
+        <v>20.537154999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1132.560000</v>
+        <v>1132.56</v>
       </c>
       <c r="BL12" s="1">
-        <v>-361.150000</v>
+        <v>-361.15</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>73945.667567</v>
+        <v>73945.667566999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>20.540463</v>
+        <v>20.540462999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1264.120000</v>
+        <v>1264.1199999999999</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-568.096000</v>
+        <v>-568.096</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>73956.537393</v>
+        <v>73956.537393000006</v>
       </c>
       <c r="BT12" s="1">
-        <v>20.543483</v>
+        <v>20.543482999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>1411.400000</v>
+        <v>1411.4</v>
       </c>
       <c r="BV12" s="1">
-        <v>-788.415000</v>
+        <v>-788.41499999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>73967.575361</v>
+        <v>73967.575360999996</v>
       </c>
       <c r="BY12" s="1">
-        <v>20.546549</v>
+        <v>20.546548999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1571.500000</v>
+        <v>1571.5</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1017.510000</v>
+        <v>-1017.51</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>73979.562674</v>
+        <v>73979.562674000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>20.549879</v>
+        <v>20.549879000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1973.910000</v>
+        <v>1973.91</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1553.510000</v>
+        <v>-1553.51</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>73807.427589</v>
+        <v>73807.427588999999</v>
       </c>
       <c r="B13" s="1">
         <v>20.502063</v>
       </c>
       <c r="C13" s="1">
-        <v>904.061000</v>
+        <v>904.06100000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-189.374000</v>
+        <v>-189.374</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>73817.841103</v>
+        <v>73817.841102999999</v>
       </c>
       <c r="G13" s="1">
         <v>20.504956</v>
       </c>
       <c r="H13" s="1">
-        <v>920.362000</v>
+        <v>920.36199999999997</v>
       </c>
       <c r="I13" s="1">
-        <v>-161.476000</v>
+        <v>-161.476</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>73828.657849</v>
+        <v>73828.657848999996</v>
       </c>
       <c r="L13" s="1">
-        <v>20.507961</v>
+        <v>20.507961000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>942.194000</v>
+        <v>942.19399999999996</v>
       </c>
       <c r="N13" s="1">
-        <v>-117.195000</v>
+        <v>-117.19499999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>73839.226145</v>
+        <v>73839.226144999993</v>
       </c>
       <c r="Q13" s="1">
-        <v>20.510896</v>
+        <v>20.510895999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>948.802000</v>
+        <v>948.80200000000002</v>
       </c>
       <c r="S13" s="1">
-        <v>-102.717000</v>
+        <v>-102.717</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>73849.423854</v>
+        <v>73849.423853999993</v>
       </c>
       <c r="V13" s="1">
-        <v>20.513729</v>
+        <v>20.513729000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>955.787000</v>
+        <v>955.78700000000003</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.450500</v>
+        <v>-89.450500000000005</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>73859.648409</v>
+        <v>73859.648409000001</v>
       </c>
       <c r="AA13" s="1">
         <v>20.516569</v>
       </c>
       <c r="AB13" s="1">
-        <v>963.474000</v>
+        <v>963.47400000000005</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.287600</v>
+        <v>-80.287599999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>73869.874898</v>
+        <v>73869.874897999995</v>
       </c>
       <c r="AF13" s="1">
-        <v>20.519410</v>
+        <v>20.519410000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>968.591000</v>
+        <v>968.59100000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.846900</v>
+        <v>-79.846900000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>73880.050325</v>
+        <v>73880.050325000004</v>
       </c>
       <c r="AK13" s="1">
-        <v>20.522236</v>
+        <v>20.522235999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>976.886000</v>
+        <v>976.88599999999997</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.652300</v>
+        <v>-87.652299999999997</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>73890.561048</v>
+        <v>73890.561048000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>20.525156</v>
+        <v>20.525155999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.203000</v>
+        <v>986.20299999999997</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.406000</v>
+        <v>-102.40600000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>73901.648121</v>
+        <v>73901.648121000006</v>
       </c>
       <c r="AU13" s="1">
         <v>20.528236</v>
       </c>
       <c r="AV13" s="1">
-        <v>997.656000</v>
+        <v>997.65599999999995</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.787000</v>
+        <v>-123.78700000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>73912.246171</v>
+        <v>73912.246171000006</v>
       </c>
       <c r="AZ13" s="1">
-        <v>20.531179</v>
+        <v>20.531179000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1007.350000</v>
+        <v>1007.35</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.413000</v>
+        <v>-142.41300000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>73922.867965</v>
+        <v>73922.867964999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>20.534130</v>
+        <v>20.534130000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1052.840000</v>
+        <v>1052.8399999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-226.579000</v>
+        <v>-226.57900000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>73934.142527</v>
+        <v>73934.142527000004</v>
       </c>
       <c r="BJ13" s="1">
-        <v>20.537262</v>
+        <v>20.537261999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1132.570000</v>
+        <v>1132.57</v>
       </c>
       <c r="BL13" s="1">
-        <v>-361.170000</v>
+        <v>-361.17</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>73946.066846</v>
+        <v>73946.066846000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>20.540574</v>
+        <v>20.540573999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1264.120000</v>
+        <v>1264.1199999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-568.078000</v>
+        <v>-568.07799999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>73956.965972</v>
+        <v>73956.965972000005</v>
       </c>
       <c r="BT13" s="1">
         <v>20.543602</v>
       </c>
       <c r="BU13" s="1">
-        <v>1411.440000</v>
+        <v>1411.44</v>
       </c>
       <c r="BV13" s="1">
-        <v>-788.493000</v>
+        <v>-788.49300000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>73968.008370</v>
+        <v>73968.008369999996</v>
       </c>
       <c r="BY13" s="1">
-        <v>20.546669</v>
+        <v>20.546669000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1571.610000</v>
+        <v>1571.61</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1017.540000</v>
+        <v>-1017.54</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>73980.100337</v>
+        <v>73980.100336999996</v>
       </c>
       <c r="CD13" s="1">
-        <v>20.550028</v>
+        <v>20.550028000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1974.790000</v>
+        <v>1974.79</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1551.590000</v>
+        <v>-1551.59</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>73808.096228</v>
+        <v>73808.096227999995</v>
       </c>
       <c r="B14" s="1">
-        <v>20.502249</v>
+        <v>20.502248999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>904.057000</v>
+        <v>904.05700000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>-189.178000</v>
+        <v>-189.178</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>73818.512678</v>
+        <v>73818.512677999999</v>
       </c>
       <c r="G14" s="1">
-        <v>20.505142</v>
+        <v>20.505141999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>920.237000</v>
+        <v>920.23699999999997</v>
       </c>
       <c r="I14" s="1">
-        <v>-161.023000</v>
+        <v>-161.023</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>73829.038795</v>
       </c>
       <c r="L14" s="1">
-        <v>20.508066</v>
+        <v>20.508065999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>942.104000</v>
+        <v>942.10400000000004</v>
       </c>
       <c r="N14" s="1">
-        <v>-117.190000</v>
+        <v>-117.19</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>73839.565878</v>
+        <v>73839.565877999994</v>
       </c>
       <c r="Q14" s="1">
-        <v>20.510991</v>
+        <v>20.510991000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>948.823000</v>
+        <v>948.82299999999998</v>
       </c>
       <c r="S14" s="1">
-        <v>-102.727000</v>
+        <v>-102.727</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>73849.770557</v>
+        <v>73849.770556999996</v>
       </c>
       <c r="V14" s="1">
-        <v>20.513825</v>
+        <v>20.513825000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>955.693000</v>
+        <v>955.69299999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.511600</v>
+        <v>-89.511600000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>73859.998419</v>
+        <v>73859.998418999996</v>
       </c>
       <c r="AA14" s="1">
-        <v>20.516666</v>
+        <v>20.516666000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>963.472000</v>
+        <v>963.47199999999998</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.346600</v>
+        <v>-80.346599999999995</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>73870.217138</v>
+        <v>73870.217138000007</v>
       </c>
       <c r="AF14" s="1">
-        <v>20.519505</v>
+        <v>20.519504999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>968.652000</v>
+        <v>968.65200000000004</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.838300</v>
+        <v>-79.838300000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>73880.477382</v>
+        <v>73880.477381999997</v>
       </c>
       <c r="AK14" s="1">
-        <v>20.522355</v>
+        <v>20.522355000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>976.884000</v>
+        <v>976.88400000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.622000</v>
+        <v>-87.622</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>73890.831900</v>
+        <v>73890.831900000005</v>
       </c>
       <c r="AP14" s="1">
-        <v>20.525231</v>
+        <v>20.525231000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.194000</v>
+        <v>986.19399999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.414000</v>
+        <v>-102.414</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>73901.944495</v>
+        <v>73901.944495000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>20.528318</v>
+        <v>20.528317999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>997.649000</v>
+        <v>997.649</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.770000</v>
+        <v>-123.77</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>73912.607227</v>
       </c>
       <c r="AZ14" s="1">
-        <v>20.531280</v>
+        <v>20.531279999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1007.340000</v>
+        <v>1007.34</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.403000</v>
+        <v>-142.40299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>73923.227564</v>
+        <v>73923.227564000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>20.534230</v>
+        <v>20.534230000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1052.810000</v>
+        <v>1052.81</v>
       </c>
       <c r="BG14" s="1">
-        <v>-226.599000</v>
+        <v>-226.59899999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>73934.530397</v>
+        <v>73934.530396999995</v>
       </c>
       <c r="BJ14" s="1">
-        <v>20.537370</v>
+        <v>20.537369999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1132.580000</v>
+        <v>1132.58</v>
       </c>
       <c r="BL14" s="1">
-        <v>-361.145000</v>
+        <v>-361.14499999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>73946.498366</v>
       </c>
       <c r="BO14" s="1">
-        <v>20.540694</v>
+        <v>20.540693999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1264.160000</v>
+        <v>1264.1600000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-568.072000</v>
+        <v>-568.072</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>73957.376127</v>
+        <v>73957.376126999996</v>
       </c>
       <c r="BT14" s="1">
         <v>20.543716</v>
       </c>
       <c r="BU14" s="1">
-        <v>1411.360000</v>
+        <v>1411.36</v>
       </c>
       <c r="BV14" s="1">
-        <v>-788.515000</v>
+        <v>-788.51499999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>73968.422528</v>
+        <v>73968.422527999996</v>
       </c>
       <c r="BY14" s="1">
-        <v>20.546784</v>
+        <v>20.546783999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1571.640000</v>
+        <v>1571.64</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1017.520000</v>
+        <v>-1017.52</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>73980.643985</v>
+        <v>73980.643985000002</v>
       </c>
       <c r="CD14" s="1">
         <v>20.550179</v>
       </c>
       <c r="CE14" s="1">
-        <v>1973.050000</v>
+        <v>1973.05</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1553.140000</v>
+        <v>-1553.14</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>73808.457779</v>
+        <v>73808.457779000004</v>
       </c>
       <c r="B15" s="1">
-        <v>20.502349</v>
+        <v>20.502348999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>904.042000</v>
+        <v>904.04200000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-189.329000</v>
+        <v>-189.32900000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>73818.873270</v>
+        <v>73818.873269999996</v>
       </c>
       <c r="G15" s="1">
         <v>20.505243</v>
       </c>
       <c r="H15" s="1">
-        <v>919.714000</v>
+        <v>919.71400000000006</v>
       </c>
       <c r="I15" s="1">
-        <v>-161.150000</v>
+        <v>-161.15</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>73829.382008</v>
       </c>
       <c r="L15" s="1">
-        <v>20.508162</v>
+        <v>20.508161999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>942.083000</v>
+        <v>942.08299999999997</v>
       </c>
       <c r="N15" s="1">
-        <v>-117.102000</v>
+        <v>-117.102</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>73839.913562</v>
+        <v>73839.913562000002</v>
       </c>
       <c r="Q15" s="1">
         <v>20.511087</v>
       </c>
       <c r="R15" s="1">
-        <v>948.810000</v>
+        <v>948.81</v>
       </c>
       <c r="S15" s="1">
-        <v>-102.635000</v>
+        <v>-102.63500000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>73850.116797</v>
+        <v>73850.116796999995</v>
       </c>
       <c r="V15" s="1">
         <v>20.513921</v>
       </c>
       <c r="W15" s="1">
-        <v>955.725000</v>
+        <v>955.72500000000002</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.543400</v>
+        <v>-89.543400000000005</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>73860.421679</v>
+        <v>73860.421679000006</v>
       </c>
       <c r="AA15" s="1">
-        <v>20.516784</v>
+        <v>20.516784000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>963.528000</v>
+        <v>963.52800000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.403800</v>
+        <v>-80.403800000000004</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>73870.642241</v>
+        <v>73870.642240999994</v>
       </c>
       <c r="AF15" s="1">
-        <v>20.519623</v>
+        <v>20.519622999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>968.679000</v>
+        <v>968.67899999999997</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.871000</v>
+        <v>-79.870999999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>73880.759109</v>
+        <v>73880.759109000006</v>
       </c>
       <c r="AK15" s="1">
-        <v>20.522433</v>
+        <v>20.522432999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>976.895000</v>
+        <v>976.89499999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.642400</v>
+        <v>-87.642399999999995</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>73891.195461</v>
+        <v>73891.195460999996</v>
       </c>
       <c r="AP15" s="1">
-        <v>20.525332</v>
+        <v>20.525331999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.194000</v>
+        <v>986.19399999999996</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.393000</v>
+        <v>-102.393</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>73902.314775</v>
+        <v>73902.314775000006</v>
       </c>
       <c r="AU15" s="1">
-        <v>20.528421</v>
+        <v>20.528421000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>997.650000</v>
+        <v>997.65</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.772000</v>
+        <v>-123.77200000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>73912.961370</v>
+        <v>73912.961370000005</v>
       </c>
       <c r="AZ15" s="1">
         <v>20.531378</v>
       </c>
       <c r="BA15" s="1">
-        <v>1007.340000</v>
+        <v>1007.34</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.410000</v>
+        <v>-142.41</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>73923.954699</v>
+        <v>73923.954698999994</v>
       </c>
       <c r="BE15" s="1">
-        <v>20.534432</v>
+        <v>20.534431999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1052.810000</v>
+        <v>1052.81</v>
       </c>
       <c r="BG15" s="1">
-        <v>-226.591000</v>
+        <v>-226.59100000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>73935.283357</v>
+        <v>73935.283356999993</v>
       </c>
       <c r="BJ15" s="1">
-        <v>20.537579</v>
+        <v>20.537579000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1132.570000</v>
+        <v>1132.57</v>
       </c>
       <c r="BL15" s="1">
-        <v>-361.183000</v>
+        <v>-361.18299999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>73946.884286</v>
       </c>
       <c r="BO15" s="1">
-        <v>20.540801</v>
+        <v>20.540800999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1264.050000</v>
+        <v>1264.05</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-568.124000</v>
+        <v>-568.12400000000002</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>73957.803710</v>
+        <v>73957.803709999993</v>
       </c>
       <c r="BT15" s="1">
         <v>20.543834</v>
       </c>
       <c r="BU15" s="1">
-        <v>1411.390000</v>
+        <v>1411.39</v>
       </c>
       <c r="BV15" s="1">
-        <v>-788.608000</v>
+        <v>-788.60799999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>73968.839665</v>
+        <v>73968.839665000007</v>
       </c>
       <c r="BY15" s="1">
-        <v>20.546900</v>
+        <v>20.546900000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1571.720000</v>
+        <v>1571.72</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1017.650000</v>
+        <v>-1017.65</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>73981.517903</v>
       </c>
       <c r="CD15" s="1">
-        <v>20.550422</v>
+        <v>20.550422000000001</v>
       </c>
       <c r="CE15" s="1">
-        <v>1973.820000</v>
+        <v>1973.82</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1551.580000</v>
+        <v>-1551.58</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>73808.802003</v>
+        <v>73808.802003000004</v>
       </c>
       <c r="B16" s="1">
-        <v>20.502445</v>
+        <v>20.502445000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>904.133000</v>
+        <v>904.13300000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>-189.401000</v>
+        <v>-189.40100000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>73819.217495</v>
+        <v>73819.217495000004</v>
       </c>
       <c r="G16" s="1">
-        <v>20.505338</v>
+        <v>20.505337999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>920.650000</v>
+        <v>920.65</v>
       </c>
       <c r="I16" s="1">
-        <v>-161.252000</v>
+        <v>-161.25200000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>73829.728216</v>
+        <v>73829.728216000003</v>
       </c>
       <c r="L16" s="1">
-        <v>20.508258</v>
+        <v>20.508258000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>941.900000</v>
+        <v>941.9</v>
       </c>
       <c r="N16" s="1">
-        <v>-117.150000</v>
+        <v>-117.15</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>73840.344090</v>
+        <v>73840.344089999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>20.511207</v>
+        <v>20.511206999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>948.806000</v>
+        <v>948.80600000000004</v>
       </c>
       <c r="S16" s="1">
-        <v>-102.691000</v>
+        <v>-102.691</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>73850.539388</v>
+        <v>73850.539388000005</v>
       </c>
       <c r="V16" s="1">
         <v>20.514039</v>
       </c>
       <c r="W16" s="1">
-        <v>955.725000</v>
+        <v>955.72500000000002</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.575000</v>
+        <v>-89.575000000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>73860.708336</v>
+        <v>73860.708335999996</v>
       </c>
       <c r="AA16" s="1">
-        <v>20.516863</v>
+        <v>20.516863000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>963.430000</v>
+        <v>963.43</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.292800</v>
+        <v>-80.2928</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>73870.915011</v>
+        <v>73870.915011000005</v>
       </c>
       <c r="AF16" s="1">
-        <v>20.519699</v>
+        <v>20.519698999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>968.811000</v>
+        <v>968.81100000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.770700</v>
+        <v>-79.770700000000005</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>73881.107797</v>
+        <v>73881.107797000004</v>
       </c>
       <c r="AK16" s="1">
-        <v>20.522530</v>
+        <v>20.52253</v>
       </c>
       <c r="AL16" s="1">
-        <v>976.866000</v>
+        <v>976.86599999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.620200</v>
+        <v>-87.620199999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>73891.552558</v>
+        <v>73891.552557999996</v>
       </c>
       <c r="AP16" s="1">
-        <v>20.525431</v>
+        <v>20.525431000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.195000</v>
+        <v>986.19500000000005</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.397000</v>
+        <v>-102.39700000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>73902.677834</v>
+        <v>73902.677834000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>20.528522</v>
+        <v>20.528521999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>997.653000</v>
+        <v>997.65300000000002</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.770000</v>
+        <v>-123.77</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>73913.680074</v>
+        <v>73913.680074000004</v>
       </c>
       <c r="AZ16" s="1">
         <v>20.531578</v>
       </c>
       <c r="BA16" s="1">
-        <v>1007.350000</v>
+        <v>1007.35</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.413000</v>
+        <v>-142.41300000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>73924.333148</v>
+        <v>73924.333148000005</v>
       </c>
       <c r="BE16" s="1">
         <v>20.534537</v>
       </c>
       <c r="BF16" s="1">
-        <v>1052.810000</v>
+        <v>1052.81</v>
       </c>
       <c r="BG16" s="1">
-        <v>-226.576000</v>
+        <v>-226.57599999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>73935.682603</v>
+        <v>73935.682602999994</v>
       </c>
       <c r="BJ16" s="1">
-        <v>20.537690</v>
+        <v>20.537690000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1132.550000</v>
+        <v>1132.55</v>
       </c>
       <c r="BL16" s="1">
-        <v>-361.156000</v>
+        <v>-361.15600000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>73947.302876</v>
+        <v>73947.302876000002</v>
       </c>
       <c r="BO16" s="1">
         <v>20.540917</v>
       </c>
       <c r="BP16" s="1">
-        <v>1264.120000</v>
+        <v>1264.1199999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-568.115000</v>
+        <v>-568.11500000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>73958.554135</v>
+        <v>73958.554134999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>20.544043</v>
+        <v>20.544042999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1411.330000</v>
+        <v>1411.33</v>
       </c>
       <c r="BV16" s="1">
-        <v>-788.573000</v>
+        <v>-788.57299999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>73969.612927</v>
+        <v>73969.612926999995</v>
       </c>
       <c r="BY16" s="1">
-        <v>20.547115</v>
+        <v>20.547115000000002</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1571.580000</v>
+        <v>1571.58</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1017.490000</v>
+        <v>-1017.49</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>73981.722255</v>
+        <v>73981.722255000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>20.550478</v>
+        <v>20.550477999999998</v>
       </c>
       <c r="CE16" s="1">
-        <v>1974.310000</v>
+        <v>1974.31</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1551.720000</v>
+        <v>-1551.72</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>73809.146723</v>
+        <v>73809.146722999998</v>
       </c>
       <c r="B17" s="1">
-        <v>20.502541</v>
+        <v>20.502541000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>904.190000</v>
+        <v>904.19</v>
       </c>
       <c r="D17" s="1">
-        <v>-189.247000</v>
+        <v>-189.24700000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>73819.563205</v>
+        <v>73819.563204999999</v>
       </c>
       <c r="G17" s="1">
-        <v>20.505434</v>
+        <v>20.505434000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>919.978000</v>
+        <v>919.97799999999995</v>
       </c>
       <c r="I17" s="1">
-        <v>-161.490000</v>
+        <v>-161.49</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>73830.158744</v>
       </c>
       <c r="L17" s="1">
-        <v>20.508377</v>
+        <v>20.508376999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>942.040000</v>
+        <v>942.04</v>
       </c>
       <c r="N17" s="1">
-        <v>-117.219000</v>
+        <v>-117.21899999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>73840.612954</v>
+        <v>73840.612953999997</v>
       </c>
       <c r="Q17" s="1">
         <v>20.511281</v>
       </c>
       <c r="R17" s="1">
-        <v>948.787000</v>
+        <v>948.78700000000003</v>
       </c>
       <c r="S17" s="1">
-        <v>-102.629000</v>
+        <v>-102.629</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>73850.813148</v>
+        <v>73850.813148000001</v>
       </c>
       <c r="V17" s="1">
         <v>20.514115</v>
       </c>
       <c r="W17" s="1">
-        <v>955.604000</v>
+        <v>955.60400000000004</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.480400</v>
+        <v>-89.480400000000003</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>73861.056527</v>
+        <v>73861.056526999993</v>
       </c>
       <c r="AA17" s="1">
-        <v>20.516960</v>
+        <v>20.516960000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>963.547000</v>
+        <v>963.54700000000003</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.300100</v>
+        <v>-80.3001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>73871.258241</v>
+        <v>73871.258241000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>20.519794</v>
+        <v>20.519794000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>968.697000</v>
+        <v>968.697</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.019900</v>
+        <v>-80.019900000000007</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>73881.455989</v>
+        <v>73881.455988999995</v>
       </c>
       <c r="AK17" s="1">
         <v>20.522627</v>
       </c>
       <c r="AL17" s="1">
-        <v>976.853000</v>
+        <v>976.85299999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.617400</v>
+        <v>-87.617400000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>73892.279718</v>
+        <v>73892.279718000005</v>
       </c>
       <c r="AP17" s="1">
-        <v>20.525633</v>
+        <v>20.525632999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.186000</v>
+        <v>986.18600000000004</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.415000</v>
+        <v>-102.41500000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>73903.405446</v>
+        <v>73903.405446000004</v>
       </c>
       <c r="AU17" s="1">
         <v>20.528724</v>
       </c>
       <c r="AV17" s="1">
-        <v>997.668000</v>
+        <v>997.66800000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.792000</v>
+        <v>-123.792</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>73914.037688</v>
+        <v>73914.037687999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>20.531677</v>
+        <v>20.531676999999998</v>
       </c>
       <c r="BA17" s="1">
-        <v>1007.340000</v>
+        <v>1007.34</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.408000</v>
+        <v>-142.40799999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>73924.695259</v>
       </c>
       <c r="BE17" s="1">
-        <v>20.534638</v>
+        <v>20.534638000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1052.830000</v>
+        <v>1052.83</v>
       </c>
       <c r="BG17" s="1">
-        <v>-226.579000</v>
+        <v>-226.57900000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>73936.055099</v>
+        <v>73936.055099000005</v>
       </c>
       <c r="BJ17" s="1">
-        <v>20.537793</v>
+        <v>20.537793000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1132.580000</v>
+        <v>1132.58</v>
       </c>
       <c r="BL17" s="1">
-        <v>-361.157000</v>
+        <v>-361.15699999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>73948.027569</v>
+        <v>73948.027568999998</v>
       </c>
       <c r="BO17" s="1">
-        <v>20.541119</v>
+        <v>20.541118999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1264.100000</v>
+        <v>1264.0999999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-568.083000</v>
+        <v>-568.08299999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>73958.680141</v>
+        <v>73958.680141000004</v>
       </c>
       <c r="BT17" s="1">
-        <v>20.544078</v>
+        <v>20.544077999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1411.260000</v>
+        <v>1411.26</v>
       </c>
       <c r="BV17" s="1">
-        <v>-788.603000</v>
+        <v>-788.60299999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>73969.736431</v>
+        <v>73969.736430999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>20.547149</v>
+        <v>20.547149000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1571.560000</v>
+        <v>1571.56</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1017.470000</v>
+        <v>-1017.47</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>73982.241107</v>
+        <v>73982.241106999994</v>
       </c>
       <c r="CD17" s="1">
-        <v>20.550623</v>
+        <v>20.550623000000002</v>
       </c>
       <c r="CE17" s="1">
-        <v>1972.950000</v>
+        <v>1972.95</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1552.370000</v>
+        <v>-1552.37</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>73809.577251</v>
+        <v>73809.577250999995</v>
       </c>
       <c r="B18" s="1">
-        <v>20.502660</v>
+        <v>20.502659999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>903.933000</v>
+        <v>903.93299999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-189.230000</v>
+        <v>-189.23</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>73819.989268</v>
+        <v>73819.989268000005</v>
       </c>
       <c r="G18" s="1">
-        <v>20.505553</v>
+        <v>20.505552999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>920.384000</v>
+        <v>920.38400000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-161.597000</v>
+        <v>-161.59700000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>73830.434023</v>
+        <v>73830.434022999994</v>
       </c>
       <c r="L18" s="1">
         <v>20.508454</v>
       </c>
       <c r="M18" s="1">
-        <v>941.983000</v>
+        <v>941.98299999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-117.184000</v>
+        <v>-117.184</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>73840.961112</v>
+        <v>73840.961112000005</v>
       </c>
       <c r="Q18" s="1">
-        <v>20.511378</v>
+        <v>20.511378000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>948.837000</v>
+        <v>948.83699999999999</v>
       </c>
       <c r="S18" s="1">
-        <v>-102.683000</v>
+        <v>-102.68300000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>73851.158859</v>
+        <v>73851.158859000003</v>
       </c>
       <c r="V18" s="1">
         <v>20.514211</v>
       </c>
       <c r="W18" s="1">
-        <v>955.574000</v>
+        <v>955.57399999999996</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.512700</v>
+        <v>-89.512699999999995</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>73861.405743</v>
+        <v>73861.405742999996</v>
       </c>
       <c r="AA18" s="1">
-        <v>20.517057</v>
+        <v>20.517057000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>963.518000</v>
+        <v>963.51800000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.380900</v>
+        <v>-80.380899999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>73871.974501</v>
+        <v>73871.974501000004</v>
       </c>
       <c r="AF18" s="1">
-        <v>20.519993</v>
+        <v>20.519992999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>968.836000</v>
+        <v>968.83600000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.001400</v>
+        <v>-80.001400000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>73882.154387</v>
+        <v>73882.154387000002</v>
       </c>
       <c r="AK18" s="1">
         <v>20.522821</v>
       </c>
       <c r="AL18" s="1">
-        <v>976.896000</v>
+        <v>976.89599999999996</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.645700</v>
+        <v>-87.645700000000005</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>73892.657140</v>
+        <v>73892.657139999996</v>
       </c>
       <c r="AP18" s="1">
         <v>20.525738</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.192000</v>
+        <v>986.19200000000001</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.415000</v>
+        <v>-102.41500000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>73903.795836</v>
+        <v>73903.795836000005</v>
       </c>
       <c r="AU18" s="1">
-        <v>20.528832</v>
+        <v>20.528832000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>997.657000</v>
+        <v>997.65700000000004</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.811000</v>
+        <v>-123.81100000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>73914.399271</v>
+        <v>73914.399271000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>20.531778</v>
+        <v>20.531777999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1007.350000</v>
+        <v>1007.35</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.407000</v>
+        <v>-142.40700000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>73925.377721</v>
+        <v>73925.377720999997</v>
       </c>
       <c r="BE18" s="1">
         <v>20.534827</v>
       </c>
       <c r="BF18" s="1">
-        <v>1052.810000</v>
+        <v>1052.81</v>
       </c>
       <c r="BG18" s="1">
-        <v>-226.573000</v>
+        <v>-226.57300000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>73936.781280</v>
+        <v>73936.781279999996</v>
       </c>
       <c r="BJ18" s="1">
-        <v>20.537995</v>
+        <v>20.537994999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1132.590000</v>
+        <v>1132.5899999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-361.155000</v>
+        <v>-361.15499999999997</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>73948.138672</v>
+        <v>73948.138672000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>20.541150</v>
+        <v>20.541149999999998</v>
       </c>
       <c r="BP18" s="1">
-        <v>1264.100000</v>
+        <v>1264.0999999999999</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-568.086000</v>
+        <v>-568.08600000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>73959.092285</v>
+        <v>73959.092285000006</v>
       </c>
       <c r="BT18" s="1">
-        <v>20.544192</v>
+        <v>20.544191999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1411.220000</v>
+        <v>1411.22</v>
       </c>
       <c r="BV18" s="1">
-        <v>-788.711000</v>
+        <v>-788.71100000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>73970.161006</v>
+        <v>73970.161005999995</v>
       </c>
       <c r="BY18" s="1">
-        <v>20.547267</v>
+        <v>20.547267000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1571.640000</v>
+        <v>1571.64</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1017.550000</v>
+        <v>-1017.55</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>73982.758893</v>
+        <v>73982.758893000006</v>
       </c>
       <c r="CD18" s="1">
-        <v>20.550766</v>
+        <v>20.550765999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>1973.470000</v>
+        <v>1973.47</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1551.740000</v>
+        <v>-1551.74</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>73809.849554</v>
       </c>
       <c r="B19" s="1">
-        <v>20.502736</v>
+        <v>20.502735999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>904.175000</v>
+        <v>904.17499999999995</v>
       </c>
       <c r="D19" s="1">
-        <v>-189.225000</v>
+        <v>-189.22499999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>73820.257606</v>
+        <v>73820.257605999999</v>
       </c>
       <c r="G19" s="1">
         <v>20.505627</v>
       </c>
       <c r="H19" s="1">
-        <v>920.179000</v>
+        <v>920.17899999999997</v>
       </c>
       <c r="I19" s="1">
-        <v>-161.205000</v>
+        <v>-161.20500000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>73830.778246</v>
+        <v>73830.778246000002</v>
       </c>
       <c r="L19" s="1">
-        <v>20.508550</v>
+        <v>20.50855</v>
       </c>
       <c r="M19" s="1">
-        <v>941.995000</v>
+        <v>941.995</v>
       </c>
       <c r="N19" s="1">
-        <v>-117.230000</v>
+        <v>-117.23</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>73841.305834</v>
+        <v>73841.305833999999</v>
       </c>
       <c r="Q19" s="1">
         <v>20.511474</v>
       </c>
       <c r="R19" s="1">
-        <v>948.822000</v>
+        <v>948.822</v>
       </c>
       <c r="S19" s="1">
-        <v>-102.659000</v>
+        <v>-102.65900000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>73851.500603</v>
+        <v>73851.500602999993</v>
       </c>
       <c r="V19" s="1">
-        <v>20.514306</v>
+        <v>20.514306000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>955.801000</v>
+        <v>955.80100000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.611000</v>
+        <v>-89.611000000000004</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>73862.101610</v>
+        <v>73862.101609999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>20.517250</v>
+        <v>20.517250000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>963.569000</v>
+        <v>963.56899999999996</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.411600</v>
+        <v>-80.411600000000007</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>73872.288929</v>
+        <v>73872.288929000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>20.520080</v>
+        <v>20.52008</v>
       </c>
       <c r="AG19" s="1">
-        <v>968.658000</v>
+        <v>968.65800000000002</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.937800</v>
+        <v>-79.937799999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>73882.503042</v>
+        <v>73882.503041999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>20.522918</v>
+        <v>20.522918000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>976.884000</v>
+        <v>976.88400000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.633800</v>
+        <v>-87.633799999999994</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>73893.017235</v>
+        <v>73893.017235000007</v>
       </c>
       <c r="AP19" s="1">
         <v>20.525838</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.208000</v>
+        <v>986.20799999999997</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.391000</v>
+        <v>-102.39100000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>73904.163333</v>
+        <v>73904.163333000004</v>
       </c>
       <c r="AU19" s="1">
         <v>20.528934</v>
       </c>
       <c r="AV19" s="1">
-        <v>997.668000</v>
+        <v>997.66800000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.789000</v>
+        <v>-123.789</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>73915.075815</v>
+        <v>73915.075815000004</v>
       </c>
       <c r="AZ19" s="1">
-        <v>20.531966</v>
+        <v>20.531966000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1007.350000</v>
+        <v>1007.35</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.397000</v>
+        <v>-142.39699999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>73925.803785</v>
+        <v>73925.803784999996</v>
       </c>
       <c r="BE19" s="1">
         <v>20.534945</v>
       </c>
       <c r="BF19" s="1">
-        <v>1052.830000</v>
+        <v>1052.83</v>
       </c>
       <c r="BG19" s="1">
-        <v>-226.595000</v>
+        <v>-226.595</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>73937.214777</v>
+        <v>73937.214777000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>20.538115</v>
+        <v>20.538115000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1132.570000</v>
+        <v>1132.57</v>
       </c>
       <c r="BL19" s="1">
-        <v>-361.178000</v>
+        <v>-361.178</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>73948.548331</v>
+        <v>73948.548330999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>20.541263</v>
+        <v>20.541263000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1264.090000</v>
+        <v>1264.0899999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-568.119000</v>
+        <v>-568.11900000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>73959.520828</v>
+        <v>73959.520827999993</v>
       </c>
       <c r="BT19" s="1">
         <v>20.544311</v>
       </c>
       <c r="BU19" s="1">
-        <v>1411.160000</v>
+        <v>1411.16</v>
       </c>
       <c r="BV19" s="1">
-        <v>-788.632000</v>
+        <v>-788.63199999999995</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>73970.580623</v>
+        <v>73970.580623000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>20.547384</v>
+        <v>20.547384000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1571.590000</v>
+        <v>1571.59</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1017.490000</v>
+        <v>-1017.49</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>73983.313457</v>
+        <v>73983.313456999997</v>
       </c>
       <c r="CD19" s="1">
-        <v>20.550920</v>
+        <v>20.550920000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1974.150000</v>
+        <v>1974.15</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1551.740000</v>
+        <v>-1551.74</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>73810.192787</v>
+        <v>73810.192787000007</v>
       </c>
       <c r="B20" s="1">
         <v>20.502831</v>
       </c>
       <c r="C20" s="1">
-        <v>904.046000</v>
+        <v>904.04600000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-189.314000</v>
+        <v>-189.31399999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>73820.602015</v>
+        <v>73820.602014999997</v>
       </c>
       <c r="G20" s="1">
         <v>20.505723</v>
       </c>
       <c r="H20" s="1">
-        <v>920.349000</v>
+        <v>920.34900000000005</v>
       </c>
       <c r="I20" s="1">
-        <v>-160.980000</v>
+        <v>-160.97999999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>73831.125445</v>
+        <v>73831.125444999998</v>
       </c>
       <c r="L20" s="1">
-        <v>20.508646</v>
+        <v>20.508645999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>941.909000</v>
+        <v>941.90899999999999</v>
       </c>
       <c r="N20" s="1">
-        <v>-117.093000</v>
+        <v>-117.093</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>73842.004695</v>
+        <v>73842.004694999996</v>
       </c>
       <c r="Q20" s="1">
         <v>20.511668</v>
       </c>
       <c r="R20" s="1">
-        <v>948.800000</v>
+        <v>948.8</v>
       </c>
       <c r="S20" s="1">
-        <v>-102.732000</v>
+        <v>-102.732</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>73852.198970</v>
+        <v>73852.198969999998</v>
       </c>
       <c r="V20" s="1">
-        <v>20.514500</v>
+        <v>20.514500000000002</v>
       </c>
       <c r="W20" s="1">
-        <v>955.619000</v>
+        <v>955.61900000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.525800</v>
+        <v>-89.525800000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>73862.453260</v>
+        <v>73862.453259999995</v>
       </c>
       <c r="AA20" s="1">
-        <v>20.517348</v>
+        <v>20.517347999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>963.436000</v>
+        <v>963.43600000000004</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.291300</v>
+        <v>-80.291300000000007</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>73872.633647</v>
+        <v>73872.633646999995</v>
       </c>
       <c r="AF20" s="1">
-        <v>20.520176</v>
+        <v>20.520175999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>968.702000</v>
+        <v>968.702</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.917800</v>
+        <v>-79.9178</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>73882.865618</v>
+        <v>73882.865617999996</v>
       </c>
       <c r="AK20" s="1">
         <v>20.523018</v>
       </c>
       <c r="AL20" s="1">
-        <v>976.886000</v>
+        <v>976.88599999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.635700</v>
+        <v>-87.6357</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>73893.687827</v>
+        <v>73893.687827000002</v>
       </c>
       <c r="AP20" s="1">
         <v>20.526024</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.188000</v>
+        <v>986.18799999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.404000</v>
+        <v>-102.404</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>73904.781348</v>
+        <v>73904.781348000004</v>
       </c>
       <c r="AU20" s="1">
-        <v>20.529106</v>
+        <v>20.529105999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>997.667000</v>
+        <v>997.66700000000003</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.792000</v>
+        <v>-123.792</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>73915.502376</v>
+        <v>73915.502376000004</v>
       </c>
       <c r="AZ20" s="1">
-        <v>20.532084</v>
+        <v>20.532084000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1007.330000</v>
+        <v>1007.33</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.412000</v>
+        <v>-142.41200000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>73926.164376</v>
+        <v>73926.164376000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>20.535046</v>
+        <v>20.535046000000001</v>
       </c>
       <c r="BF20" s="1">
-        <v>1052.830000</v>
+        <v>1052.83</v>
       </c>
       <c r="BG20" s="1">
-        <v>-226.598000</v>
+        <v>-226.59800000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>73937.607577</v>
+        <v>73937.607577000002</v>
       </c>
       <c r="BJ20" s="1">
         <v>20.538224</v>
       </c>
       <c r="BK20" s="1">
-        <v>1132.560000</v>
+        <v>1132.56</v>
       </c>
       <c r="BL20" s="1">
-        <v>-361.150000</v>
+        <v>-361.15</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>73948.945167</v>
+        <v>73948.945166999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>20.541374</v>
+        <v>20.541374000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-568.124000</v>
+        <v>-568.12400000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>73959.948919</v>
+        <v>73959.948919000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>20.544430</v>
+        <v>20.544429999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1411.090000</v>
+        <v>1411.09</v>
       </c>
       <c r="BV20" s="1">
-        <v>-788.727000</v>
+        <v>-788.72699999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>73971.038506</v>
+        <v>73971.038505999997</v>
       </c>
       <c r="BY20" s="1">
         <v>20.547511</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1571.610000</v>
+        <v>1571.61</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1017.590000</v>
+        <v>-1017.59</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>73983.850626</v>
+        <v>73983.850625999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>20.551070</v>
+        <v>20.551069999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1972.910000</v>
+        <v>1972.91</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1552.530000</v>
+        <v>-1552.53</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>73810.537010</v>
+        <v>73810.53701</v>
       </c>
       <c r="B21" s="1">
         <v>20.502927</v>
       </c>
       <c r="C21" s="1">
-        <v>904.105000</v>
+        <v>904.10500000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>-189.367000</v>
+        <v>-189.36699999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>73820.950550</v>
+        <v>73820.950549999994</v>
       </c>
       <c r="G21" s="1">
-        <v>20.505820</v>
+        <v>20.50582</v>
       </c>
       <c r="H21" s="1">
-        <v>920.036000</v>
+        <v>920.03599999999994</v>
       </c>
       <c r="I21" s="1">
-        <v>-161.063000</v>
+        <v>-161.06299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>73831.818357</v>
+        <v>73831.818356999996</v>
       </c>
       <c r="L21" s="1">
-        <v>20.508838</v>
+        <v>20.508838000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>941.929000</v>
+        <v>941.92899999999997</v>
       </c>
       <c r="N21" s="1">
-        <v>-117.311000</v>
+        <v>-117.31100000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>73842.351895</v>
       </c>
       <c r="Q21" s="1">
-        <v>20.511764</v>
+        <v>20.511763999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>948.794000</v>
+        <v>948.79399999999998</v>
       </c>
       <c r="S21" s="1">
-        <v>-102.737000</v>
+        <v>-102.73699999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>73852.548153</v>
+        <v>73852.548152999996</v>
       </c>
       <c r="V21" s="1">
-        <v>20.514597</v>
+        <v>20.514596999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>955.726000</v>
+        <v>955.726</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.516400</v>
+        <v>-89.516400000000004</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>73862.802973</v>
+        <v>73862.802972999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>20.517445</v>
+        <v>20.517444999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>963.482000</v>
+        <v>963.48199999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.369600</v>
+        <v>-80.369600000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>73873.289391</v>
+        <v>73873.289390999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>20.520358</v>
+        <v>20.520358000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>968.566000</v>
+        <v>968.56600000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.759600</v>
+        <v>-79.759600000000006</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>73883.521858</v>
+        <v>73883.521857999993</v>
       </c>
       <c r="AK21" s="1">
         <v>20.523201</v>
       </c>
       <c r="AL21" s="1">
-        <v>976.882000</v>
+        <v>976.88199999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.625500</v>
+        <v>-87.625500000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>73894.098547</v>
+        <v>73894.098547000001</v>
       </c>
       <c r="AP21" s="1">
         <v>20.526138</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.191000</v>
+        <v>986.19100000000003</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.414000</v>
+        <v>-102.414</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>73904.904852</v>
+        <v>73904.904852000007</v>
       </c>
       <c r="AU21" s="1">
-        <v>20.529140</v>
+        <v>20.529140000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>997.654000</v>
+        <v>997.654</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.786000</v>
+        <v>-123.786</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>73915.882806</v>
+        <v>73915.882805999994</v>
       </c>
       <c r="AZ21" s="1">
-        <v>20.532190</v>
+        <v>20.53219</v>
       </c>
       <c r="BA21" s="1">
-        <v>1007.350000</v>
+        <v>1007.35</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.411000</v>
+        <v>-142.411</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>73926.527944</v>
+        <v>73926.527944000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>20.535147</v>
+        <v>20.535146999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1052.830000</v>
+        <v>1052.83</v>
       </c>
       <c r="BG21" s="1">
-        <v>-226.578000</v>
+        <v>-226.578</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>73938.218193</v>
+        <v>73938.218192999993</v>
       </c>
       <c r="BJ21" s="1">
         <v>20.538394</v>
       </c>
       <c r="BK21" s="1">
-        <v>1132.570000</v>
+        <v>1132.57</v>
       </c>
       <c r="BL21" s="1">
-        <v>-361.170000</v>
+        <v>-361.17</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>73949.373178</v>
+        <v>73949.373177999994</v>
       </c>
       <c r="BO21" s="1">
-        <v>20.541493</v>
+        <v>20.541492999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1264.120000</v>
+        <v>1264.1199999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-568.096000</v>
+        <v>-568.096</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>73960.348156</v>
+        <v>73960.348155999993</v>
       </c>
       <c r="BT21" s="1">
-        <v>20.544541</v>
+        <v>20.544540999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1411.110000</v>
+        <v>1411.11</v>
       </c>
       <c r="BV21" s="1">
-        <v>-788.660000</v>
+        <v>-788.66</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>73971.443660</v>
+        <v>73971.443660000004</v>
       </c>
       <c r="BY21" s="1">
-        <v>20.547623</v>
+        <v>20.547623000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1571.570000</v>
+        <v>1571.57</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1017.570000</v>
+        <v>-1017.57</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>73984.359020</v>
+        <v>73984.359020000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>20.551211</v>
+        <v>20.551210999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>1973.630000</v>
+        <v>1973.63</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1551.850000</v>
+        <v>-1551.85</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>73811.218524</v>
+        <v>73811.218523999996</v>
       </c>
       <c r="B22" s="1">
-        <v>20.503116</v>
+        <v>20.503115999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>903.964000</v>
+        <v>903.96400000000006</v>
       </c>
       <c r="D22" s="1">
-        <v>-189.410000</v>
+        <v>-189.41</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>73821.643923</v>
+        <v>73821.643922999996</v>
       </c>
       <c r="G22" s="1">
-        <v>20.506012</v>
+        <v>20.506011999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>920.027000</v>
+        <v>920.02700000000004</v>
       </c>
       <c r="I22" s="1">
-        <v>-161.339000</v>
+        <v>-161.339</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>73832.163573</v>
+        <v>73832.163572999998</v>
       </c>
       <c r="L22" s="1">
         <v>20.508934</v>
       </c>
       <c r="M22" s="1">
-        <v>941.962000</v>
+        <v>941.96199999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-116.950000</v>
+        <v>-116.95</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>73842.703063</v>
+        <v>73842.703062999994</v>
       </c>
       <c r="Q22" s="1">
-        <v>20.511862</v>
+        <v>20.511862000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>948.805000</v>
+        <v>948.80499999999995</v>
       </c>
       <c r="S22" s="1">
-        <v>-102.691000</v>
+        <v>-102.691</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>73852.894361</v>
+        <v>73852.894360999999</v>
       </c>
       <c r="V22" s="1">
-        <v>20.514693</v>
+        <v>20.514693000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>955.677000</v>
+        <v>955.67700000000002</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.449300</v>
+        <v>-89.449299999999994</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>73863.471549</v>
+        <v>73863.471548999994</v>
       </c>
       <c r="AA22" s="1">
-        <v>20.517631</v>
+        <v>20.517631000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>963.487000</v>
+        <v>963.48699999999997</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.376000</v>
+        <v>-80.376000000000005</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>73873.661853</v>
+        <v>73873.661852999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>20.520462</v>
+        <v>20.520461999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>968.872000</v>
+        <v>968.87199999999996</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.880400</v>
+        <v>-79.880399999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>73883.898288</v>
+        <v>73883.898287999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>20.523305</v>
+        <v>20.523305000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>976.911000</v>
+        <v>976.91099999999994</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.614800</v>
+        <v>-87.614800000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>73894.482418</v>
       </c>
       <c r="AP22" s="1">
-        <v>20.526245</v>
+        <v>20.526244999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.210000</v>
+        <v>986.21</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.418000</v>
+        <v>-102.41800000000001</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>73905.285779</v>
+        <v>73905.285778999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>20.529246</v>
+        <v>20.529246000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>997.677000</v>
+        <v>997.67700000000002</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.780000</v>
+        <v>-123.78</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>73916.238437</v>
+        <v>73916.238437000007</v>
       </c>
       <c r="AZ22" s="1">
-        <v>20.532288</v>
+        <v>20.532288000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1007.350000</v>
+        <v>1007.35</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.402000</v>
+        <v>-142.40199999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>73926.962935</v>
+        <v>73926.962935000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>20.535267</v>
+        <v>20.535267000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1052.830000</v>
+        <v>1052.83</v>
       </c>
       <c r="BG22" s="1">
-        <v>-226.587000</v>
+        <v>-226.58699999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>73938.356072</v>
+        <v>73938.356071999995</v>
       </c>
       <c r="BJ22" s="1">
         <v>20.538432</v>
       </c>
       <c r="BK22" s="1">
-        <v>1132.580000</v>
+        <v>1132.58</v>
       </c>
       <c r="BL22" s="1">
-        <v>-361.187000</v>
+        <v>-361.18700000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>73949.763530</v>
+        <v>73949.763529999997</v>
       </c>
       <c r="BO22" s="1">
         <v>20.541601</v>
       </c>
       <c r="BP22" s="1">
-        <v>1264.110000</v>
+        <v>1264.1099999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-568.156000</v>
+        <v>-568.15599999999995</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>73960.764332</v>
+        <v>73960.764332000006</v>
       </c>
       <c r="BT22" s="1">
-        <v>20.544657</v>
+        <v>20.544657000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1410.980000</v>
+        <v>1410.98</v>
       </c>
       <c r="BV22" s="1">
-        <v>-788.701000</v>
+        <v>-788.70100000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>73971.867740</v>
+        <v>73971.867740000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>20.547741</v>
+        <v>20.547740999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1571.610000</v>
+        <v>1571.61</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1017.490000</v>
+        <v>-1017.49</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>73984.912522</v>
+        <v>73984.912521999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>20.551365</v>
+        <v>20.551365000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1974.700000</v>
+        <v>1974.7</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1551.890000</v>
+        <v>-1551.89</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>73811.559760</v>
+        <v>73811.559760000004</v>
       </c>
       <c r="B23" s="1">
         <v>20.503211</v>
       </c>
       <c r="C23" s="1">
-        <v>903.987000</v>
+        <v>903.98699999999997</v>
       </c>
       <c r="D23" s="1">
-        <v>-189.382000</v>
+        <v>-189.38200000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>73821.999058</v>
+        <v>73821.999058000001</v>
       </c>
       <c r="G23" s="1">
-        <v>20.506111</v>
+        <v>20.506111000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>919.866000</v>
+        <v>919.86599999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-161.136000</v>
+        <v>-161.136</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>73832.508788</v>
+        <v>73832.508788000006</v>
       </c>
       <c r="L23" s="1">
-        <v>20.509030</v>
+        <v>20.509029999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>941.967000</v>
+        <v>941.96699999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-117.160000</v>
+        <v>-117.16</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>73843.359305</v>
+        <v>73843.359305000005</v>
       </c>
       <c r="Q23" s="1">
-        <v>20.512044</v>
+        <v>20.512043999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>948.872000</v>
+        <v>948.87199999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-102.614000</v>
+        <v>-102.614</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>73853.554040</v>
+        <v>73853.554040000003</v>
       </c>
       <c r="V23" s="1">
-        <v>20.514876</v>
+        <v>20.514876000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>955.649000</v>
+        <v>955.649</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.539900</v>
+        <v>-89.539900000000003</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>73863.848027</v>
       </c>
       <c r="AA23" s="1">
-        <v>20.517736</v>
+        <v>20.517735999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>963.423000</v>
+        <v>963.423</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.346300</v>
+        <v>-80.346299999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>73874.005085</v>
+        <v>73874.005084999997</v>
       </c>
       <c r="AF23" s="1">
         <v>20.520557</v>
       </c>
       <c r="AG23" s="1">
-        <v>968.543000</v>
+        <v>968.54300000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.060100</v>
+        <v>-80.060100000000006</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>73884.243504</v>
+        <v>73884.243503999998</v>
       </c>
       <c r="AK23" s="1">
         <v>20.523401</v>
       </c>
       <c r="AL23" s="1">
-        <v>976.903000</v>
+        <v>976.90300000000002</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.658100</v>
+        <v>-87.658100000000005</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>73894.841057</v>
+        <v>73894.841056999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>20.526345</v>
+        <v>20.526344999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.199000</v>
+        <v>986.19899999999996</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.412000</v>
+        <v>-102.41200000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>73905.717795</v>
+        <v>73905.717795000004</v>
       </c>
       <c r="AU23" s="1">
         <v>20.529366</v>
       </c>
       <c r="AV23" s="1">
-        <v>997.659000</v>
+        <v>997.65899999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.785000</v>
+        <v>-123.785</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>73916.676583</v>
+        <v>73916.676582999993</v>
       </c>
       <c r="AZ23" s="1">
-        <v>20.532410</v>
+        <v>20.532409999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1007.350000</v>
+        <v>1007.35</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.394000</v>
+        <v>-142.39400000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>73927.247144</v>
+        <v>73927.247143999994</v>
       </c>
       <c r="BE23" s="1">
-        <v>20.535346</v>
+        <v>20.535346000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1052.830000</v>
+        <v>1052.83</v>
       </c>
       <c r="BG23" s="1">
-        <v>-226.582000</v>
+        <v>-226.58199999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>73938.762759</v>
+        <v>73938.762759000005</v>
       </c>
       <c r="BJ23" s="1">
-        <v>20.538545</v>
+        <v>20.538544999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1132.560000</v>
+        <v>1132.56</v>
       </c>
       <c r="BL23" s="1">
-        <v>-361.155000</v>
+        <v>-361.15499999999997</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>73950.184136</v>
+        <v>73950.184135999996</v>
       </c>
       <c r="BO23" s="1">
-        <v>20.541718</v>
+        <v>20.541717999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-568.118000</v>
+        <v>-568.11800000000005</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>73961.179451</v>
+        <v>73961.179451000004</v>
       </c>
       <c r="BT23" s="1">
-        <v>20.544772</v>
+        <v>20.544771999999998</v>
       </c>
       <c r="BU23" s="1">
-        <v>1410.880000</v>
+        <v>1410.88</v>
       </c>
       <c r="BV23" s="1">
-        <v>-788.665000</v>
+        <v>-788.66499999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>73972.317162</v>
+        <v>73972.317162000007</v>
       </c>
       <c r="BY23" s="1">
-        <v>20.547866</v>
+        <v>20.547865999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1571.600000</v>
+        <v>1571.6</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1017.360000</v>
+        <v>-1017.36</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>73985.444730</v>
+        <v>73985.444730000003</v>
       </c>
       <c r="CD23" s="1">
-        <v>20.551512</v>
+        <v>20.551511999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1972.910000</v>
+        <v>1972.91</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1551.950000</v>
+        <v>-1551.95</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>73811.900016</v>
       </c>
       <c r="B24" s="1">
-        <v>20.503306</v>
+        <v>20.503305999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>903.822000</v>
+        <v>903.822</v>
       </c>
       <c r="D24" s="1">
-        <v>-189.368000</v>
+        <v>-189.36799999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>73822.346754</v>
+        <v>73822.346753999998</v>
       </c>
       <c r="G24" s="1">
         <v>20.506207</v>
       </c>
       <c r="H24" s="1">
-        <v>920.092000</v>
+        <v>920.09199999999998</v>
       </c>
       <c r="I24" s="1">
-        <v>-161.236000</v>
+        <v>-161.23599999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>73833.187811</v>
+        <v>73833.187810999996</v>
       </c>
       <c r="L24" s="1">
-        <v>20.509219</v>
+        <v>20.509219000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>942.097000</v>
+        <v>942.09699999999998</v>
       </c>
       <c r="N24" s="1">
-        <v>-117.175000</v>
+        <v>-117.175</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>73843.748661</v>
+        <v>73843.748661000005</v>
       </c>
       <c r="Q24" s="1">
         <v>20.512152</v>
       </c>
       <c r="R24" s="1">
-        <v>948.828000</v>
+        <v>948.82799999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-102.665000</v>
+        <v>-102.66500000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>73853.924056</v>
+        <v>73853.924056000003</v>
       </c>
       <c r="V24" s="1">
         <v>20.514979</v>
       </c>
       <c r="W24" s="1">
-        <v>955.664000</v>
+        <v>955.66399999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.554300</v>
+        <v>-89.554299999999998</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>73864.195725</v>
+        <v>73864.195724999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>20.517832</v>
+        <v>20.517831999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>963.531000</v>
+        <v>963.53099999999995</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.357400</v>
+        <v>-80.357399999999998</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>73874.349805</v>
+        <v>73874.349805000005</v>
       </c>
       <c r="AF24" s="1">
-        <v>20.520653</v>
+        <v>20.520652999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>968.602000</v>
+        <v>968.60199999999998</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.893700</v>
+        <v>-79.893699999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>73884.596215</v>
+        <v>73884.596214999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>20.523499</v>
+        <v>20.523499000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>976.874000</v>
+        <v>976.87400000000002</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.620400</v>
+        <v>-87.620400000000004</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>73895.265601</v>
+        <v>73895.265601000006</v>
       </c>
       <c r="AP24" s="1">
         <v>20.526463</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.208000</v>
+        <v>986.20799999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.403000</v>
+        <v>-102.40300000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>73906.015892</v>
+        <v>73906.015891999996</v>
       </c>
       <c r="AU24" s="1">
         <v>20.529449</v>
       </c>
       <c r="AV24" s="1">
-        <v>997.678000</v>
+        <v>997.678</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.785000</v>
+        <v>-123.785</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>73916.958133</v>
+        <v>73916.958132999993</v>
       </c>
       <c r="AZ24" s="1">
-        <v>20.532488</v>
+        <v>20.532488000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1007.330000</v>
+        <v>1007.33</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.398000</v>
+        <v>-142.398</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>73927.609718</v>
+        <v>73927.609718000007</v>
       </c>
       <c r="BE24" s="1">
-        <v>20.535447</v>
+        <v>20.535447000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1052.820000</v>
+        <v>1052.82</v>
       </c>
       <c r="BG24" s="1">
-        <v>-226.577000</v>
+        <v>-226.577</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>73939.138727</v>
+        <v>73939.138726999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>20.538650</v>
+        <v>20.538650000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1132.580000</v>
+        <v>1132.58</v>
       </c>
       <c r="BL24" s="1">
-        <v>-361.170000</v>
+        <v>-361.17</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>73950.578456</v>
+        <v>73950.578456000003</v>
       </c>
       <c r="BO24" s="1">
-        <v>20.541827</v>
+        <v>20.541827000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1264.130000</v>
+        <v>1264.1300000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-568.095000</v>
+        <v>-568.09500000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>73961.616954</v>
+        <v>73961.616953999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>20.544894</v>
+        <v>20.544893999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1410.880000</v>
+        <v>1410.88</v>
       </c>
       <c r="BV24" s="1">
-        <v>-788.688000</v>
+        <v>-788.68799999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>73972.749131</v>
+        <v>73972.749131000004</v>
       </c>
       <c r="BY24" s="1">
-        <v>20.547986</v>
+        <v>20.547986000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1571.560000</v>
+        <v>1571.56</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1017.610000</v>
+        <v>-1017.61</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>73985.958588</v>
+        <v>73985.958587999994</v>
       </c>
       <c r="CD24" s="1">
         <v>20.551655</v>
       </c>
       <c r="CE24" s="1">
-        <v>1973.890000</v>
+        <v>1973.89</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1551.790000</v>
+        <v>-1551.79</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>73812.556223</v>
+        <v>73812.556223000007</v>
       </c>
       <c r="B25" s="1">
-        <v>20.503488</v>
+        <v>20.503488000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>904.091000</v>
+        <v>904.09100000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-189.259000</v>
+        <v>-189.25899999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>73822.949430</v>
+        <v>73822.949429999993</v>
       </c>
       <c r="G25" s="1">
-        <v>20.506375</v>
+        <v>20.506374999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>919.556000</v>
+        <v>919.55600000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-161.332000</v>
+        <v>-161.33199999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>73833.545427</v>
+        <v>73833.545427000005</v>
       </c>
       <c r="L25" s="1">
         <v>20.509318</v>
       </c>
       <c r="M25" s="1">
-        <v>941.855000</v>
+        <v>941.85500000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-117.080000</v>
+        <v>-117.08</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>73844.095846</v>
+        <v>73844.095845999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>20.512249</v>
+        <v>20.512249000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>948.844000</v>
+        <v>948.84400000000005</v>
       </c>
       <c r="S25" s="1">
-        <v>-102.678000</v>
+        <v>-102.678</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>73854.265437</v>
+        <v>73854.265436999995</v>
       </c>
       <c r="V25" s="1">
-        <v>20.515074</v>
+        <v>20.515073999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>955.811000</v>
+        <v>955.81100000000004</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.470500</v>
+        <v>-89.470500000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>73864.545386</v>
+        <v>73864.545385999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>20.517929</v>
+        <v>20.517928999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>963.553000</v>
+        <v>963.553</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.355400</v>
+        <v>-80.355400000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>73874.784796</v>
+        <v>73874.784796000007</v>
       </c>
       <c r="AF25" s="1">
-        <v>20.520774</v>
+        <v>20.520773999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>968.736000</v>
+        <v>968.73599999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.115000</v>
+        <v>-80.114999999999995</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>73885.031678</v>
+        <v>73885.031677999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>20.523620</v>
+        <v>20.523620000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>976.882000</v>
+        <v>976.88199999999995</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.615300</v>
+        <v>-87.615300000000005</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>73895.561713</v>
+        <v>73895.561713000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>20.526545</v>
+        <v>20.526544999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.193000</v>
+        <v>986.19299999999998</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.396000</v>
+        <v>-102.396</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>73906.382435</v>
+        <v>73906.382435000007</v>
       </c>
       <c r="AU25" s="1">
-        <v>20.529551</v>
+        <v>20.529551000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>997.673000</v>
+        <v>997.673</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.783000</v>
+        <v>-123.783</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>73917.317764</v>
+        <v>73917.317764000007</v>
       </c>
       <c r="AZ25" s="1">
-        <v>20.532588</v>
+        <v>20.532588000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1007.350000</v>
+        <v>1007.35</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.403000</v>
+        <v>-142.40299999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>73927.970838</v>
+        <v>73927.970837999994</v>
       </c>
       <c r="BE25" s="1">
-        <v>20.535547</v>
+        <v>20.535547000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1052.800000</v>
+        <v>1052.8</v>
       </c>
       <c r="BG25" s="1">
-        <v>-226.591000</v>
+        <v>-226.59100000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>73939.912488</v>
+        <v>73939.912488000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>20.538865</v>
+        <v>20.538865000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1132.540000</v>
+        <v>1132.54</v>
       </c>
       <c r="BL25" s="1">
-        <v>-361.158000</v>
+        <v>-361.15800000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>73951.398839</v>
+        <v>73951.398839000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>20.542055</v>
+        <v>20.542055000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1264.160000</v>
+        <v>1264.1600000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-568.081000</v>
+        <v>-568.08100000000002</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>73962.046489</v>
       </c>
       <c r="BT25" s="1">
-        <v>20.545013</v>
+        <v>20.545013000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1410.840000</v>
+        <v>1410.84</v>
       </c>
       <c r="BV25" s="1">
-        <v>-788.648000</v>
+        <v>-788.64800000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>73973.170733</v>
+        <v>73973.170733000006</v>
       </c>
       <c r="BY25" s="1">
-        <v>20.548103</v>
+        <v>20.548103000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1571.570000</v>
+        <v>1571.57</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1017.660000</v>
+        <v>-1017.66</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>73986.512616</v>
+        <v>73986.512616000007</v>
       </c>
       <c r="CD25" s="1">
-        <v>20.551809</v>
+        <v>20.551808999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1974.910000</v>
+        <v>1974.91</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1552.100000</v>
+        <v>-1552.1</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>73812.925775</v>
+        <v>73812.925774999996</v>
       </c>
       <c r="B26" s="1">
-        <v>20.503590</v>
+        <v>20.503589999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>904.062000</v>
+        <v>904.06200000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-189.482000</v>
+        <v>-189.482</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>73823.376945</v>
+        <v>73823.376944999996</v>
       </c>
       <c r="G26" s="1">
         <v>20.506494</v>
       </c>
       <c r="H26" s="1">
-        <v>920.502000</v>
+        <v>920.50199999999995</v>
       </c>
       <c r="I26" s="1">
-        <v>-161.154000</v>
+        <v>-161.154</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>73833.880755</v>
+        <v>73833.880755000006</v>
       </c>
       <c r="L26" s="1">
         <v>20.509411</v>
       </c>
       <c r="M26" s="1">
-        <v>942.061000</v>
+        <v>942.06100000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-116.991000</v>
+        <v>-116.991</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>73844.445508</v>
+        <v>73844.445508000004</v>
       </c>
       <c r="Q26" s="1">
-        <v>20.512346</v>
+        <v>20.512346000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>948.826000</v>
+        <v>948.82600000000002</v>
       </c>
       <c r="S26" s="1">
-        <v>-102.655000</v>
+        <v>-102.655</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>73854.614028</v>
+        <v>73854.614027999996</v>
       </c>
       <c r="V26" s="1">
-        <v>20.515171</v>
+        <v>20.515170999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>955.707000</v>
+        <v>955.70699999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.446000</v>
+        <v>-89.445999999999998</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>73864.973433</v>
+        <v>73864.973433000006</v>
       </c>
       <c r="AA26" s="1">
         <v>20.518048</v>
       </c>
       <c r="AB26" s="1">
-        <v>963.485000</v>
+        <v>963.48500000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.369800</v>
+        <v>-80.369799999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>73875.039245</v>
+        <v>73875.039245000007</v>
       </c>
       <c r="AF26" s="1">
         <v>20.520844</v>
       </c>
       <c r="AG26" s="1">
-        <v>968.863000</v>
+        <v>968.86300000000006</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.945800</v>
+        <v>-79.945800000000006</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>73885.302958</v>
@@ -6754,150 +7170,151 @@
         <v>20.523695</v>
       </c>
       <c r="AL26" s="1">
-        <v>976.908000</v>
+        <v>976.90800000000002</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.638400</v>
+        <v>-87.638400000000004</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>73895.922304</v>
+        <v>73895.922304000007</v>
       </c>
       <c r="AP26" s="1">
-        <v>20.526645</v>
+        <v>20.526644999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.196000</v>
+        <v>986.19600000000003</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.409000</v>
+        <v>-102.40900000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>73906.744120</v>
+        <v>73906.744120000003</v>
       </c>
       <c r="AU26" s="1">
-        <v>20.529651</v>
+        <v>20.529651000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>997.667000</v>
+        <v>997.66700000000003</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.776000</v>
+        <v>-123.776</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>73917.675856</v>
+        <v>73917.675856000002</v>
       </c>
       <c r="AZ26" s="1">
         <v>20.532688</v>
       </c>
       <c r="BA26" s="1">
-        <v>1007.330000</v>
+        <v>1007.33</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.395000</v>
+        <v>-142.39500000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>73928.695959</v>
+        <v>73928.695959000004</v>
       </c>
       <c r="BE26" s="1">
-        <v>20.535749</v>
+        <v>20.535748999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1052.830000</v>
+        <v>1052.83</v>
       </c>
       <c r="BG26" s="1">
-        <v>-226.589000</v>
+        <v>-226.589</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>73940.293415</v>
+        <v>73940.293414999993</v>
       </c>
       <c r="BJ26" s="1">
-        <v>20.538970</v>
+        <v>20.538969999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1132.570000</v>
+        <v>1132.57</v>
       </c>
       <c r="BL26" s="1">
-        <v>-361.164000</v>
+        <v>-361.16399999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>73951.797655</v>
+        <v>73951.797655000002</v>
       </c>
       <c r="BO26" s="1">
-        <v>20.542166</v>
+        <v>20.542166000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1264.100000</v>
+        <v>1264.0999999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-568.071000</v>
+        <v>-568.07100000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>73962.458632</v>
+        <v>73962.458631999994</v>
       </c>
       <c r="BT26" s="1">
-        <v>20.545127</v>
+        <v>20.545127000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1410.790000</v>
+        <v>1410.79</v>
       </c>
       <c r="BV26" s="1">
-        <v>-788.553000</v>
+        <v>-788.553</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>73973.911753</v>
+        <v>73973.911752999993</v>
       </c>
       <c r="BY26" s="1">
         <v>20.548309</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1571.670000</v>
+        <v>1571.67</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1017.540000</v>
+        <v>-1017.54</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>73987.178249</v>
+        <v>73987.178249000004</v>
       </c>
       <c r="CD26" s="1">
-        <v>20.551994</v>
+        <v>20.551994000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1973.250000</v>
+        <v>1973.25</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1551.870000</v>
+        <v>-1551.87</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>